--- a/teaching/traditional_assets/database/data/netherlands/netherlands_retail_building_supply.xlsx
+++ b/teaching/traditional_assets/database/data/netherlands/netherlands_retail_building_supply.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="enxtam_bbed" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,25 +593,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0315</v>
+        <v>-0.125</v>
       </c>
       <c r="G2">
-        <v>-0.01787345075016308</v>
+        <v>0.01953551912568306</v>
       </c>
       <c r="H2">
-        <v>-0.01787345075016308</v>
+        <v>0.01953551912568306</v>
       </c>
       <c r="I2">
-        <v>-0.01302909379728392</v>
+        <v>0.01247723132969035</v>
       </c>
       <c r="J2">
-        <v>-0.01302909379728392</v>
+        <v>0.006238615664845174</v>
       </c>
       <c r="K2">
-        <v>-44.5</v>
+        <v>-31.4</v>
       </c>
       <c r="L2">
-        <v>-0.09676016525331595</v>
+        <v>-0.1429872495446266</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +635,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>4.3</v>
+        <v>10.7</v>
       </c>
       <c r="V2">
-        <v>0.07049180327868852</v>
+        <v>0.07753623188405796</v>
       </c>
       <c r="W2">
-        <v>-0.6079234972677595</v>
+        <v>-1.16728624535316</v>
       </c>
       <c r="X2">
-        <v>0.1986102006488165</v>
+        <v>0.07381488866982115</v>
       </c>
       <c r="Y2">
-        <v>-0.806533697916576</v>
+        <v>-1.241101134022981</v>
       </c>
       <c r="Z2">
-        <v>1.984291340244204</v>
+        <v>1.994550408719346</v>
       </c>
       <c r="AA2">
-        <v>-0.02585351799317995</v>
+        <v>0.01244323342415985</v>
       </c>
       <c r="AB2">
-        <v>0.06422508402927674</v>
+        <v>0.05849663873143395</v>
       </c>
       <c r="AC2">
-        <v>-0.09007860202245668</v>
+        <v>-0.0460534053072741</v>
       </c>
       <c r="AD2">
-        <v>87.5</v>
+        <v>54</v>
       </c>
       <c r="AE2">
-        <v>141.9604011868544</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>229.4604011868544</v>
+        <v>54</v>
       </c>
       <c r="AG2">
-        <v>225.1604011868544</v>
+        <v>43.3</v>
       </c>
       <c r="AH2">
-        <v>0.789988584499825</v>
+        <v>0.28125</v>
       </c>
       <c r="AI2">
-        <v>0.8950695978182945</v>
+        <v>0.9058882737795672</v>
       </c>
       <c r="AJ2">
-        <v>0.7868328400889794</v>
+        <v>0.2388306674020959</v>
       </c>
       <c r="AK2">
-        <v>0.8932795477856166</v>
+        <v>0.8852995297485177</v>
       </c>
       <c r="AL2">
-        <v>1.43</v>
+        <v>3.3</v>
       </c>
       <c r="AM2">
-        <v>1.208</v>
+        <v>3.3</v>
       </c>
       <c r="AN2">
-        <v>2.182044887780549</v>
+        <v>6.976744186046512</v>
       </c>
       <c r="AO2">
-        <v>-20.62937062937063</v>
+        <v>0.8303030303030304</v>
       </c>
       <c r="AP2">
-        <v>5.61497259817592</v>
+        <v>5.594315245478036</v>
       </c>
       <c r="AQ2">
-        <v>-24.42052980132451</v>
+        <v>0.8303030303030304</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +721,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0315</v>
+        <v>-0.125</v>
       </c>
       <c r="G3">
-        <v>-0.01787345075016308</v>
+        <v>0.01953551912568306</v>
       </c>
       <c r="H3">
-        <v>-0.01787345075016308</v>
+        <v>0.01953551912568306</v>
       </c>
       <c r="I3">
-        <v>-0.01302909379728392</v>
+        <v>0.01247723132969035</v>
       </c>
       <c r="J3">
-        <v>-0.01302909379728392</v>
+        <v>0.006238615664845174</v>
       </c>
       <c r="K3">
-        <v>-44.5</v>
+        <v>-31.4</v>
       </c>
       <c r="L3">
-        <v>-0.09676016525331595</v>
+        <v>-0.1429872495446266</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +763,8780 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>4.3</v>
+        <v>10.7</v>
       </c>
       <c r="V3">
-        <v>0.07049180327868852</v>
+        <v>0.07753623188405796</v>
       </c>
       <c r="W3">
-        <v>-0.6079234972677595</v>
+        <v>-1.16728624535316</v>
       </c>
       <c r="X3">
-        <v>0.1986102006488165</v>
+        <v>0.07381488866982115</v>
       </c>
       <c r="Y3">
-        <v>-0.806533697916576</v>
+        <v>-1.241101134022981</v>
       </c>
       <c r="Z3">
-        <v>1.984291340244204</v>
+        <v>1.994550408719346</v>
       </c>
       <c r="AA3">
-        <v>-0.02585351799317995</v>
+        <v>0.01244323342415985</v>
       </c>
       <c r="AB3">
-        <v>0.06422508402927674</v>
+        <v>0.05849663873143395</v>
       </c>
       <c r="AC3">
-        <v>-0.09007860202245668</v>
+        <v>-0.0460534053072741</v>
       </c>
       <c r="AD3">
-        <v>87.5</v>
+        <v>54</v>
       </c>
       <c r="AE3">
-        <v>141.9604011868544</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>229.4604011868544</v>
+        <v>54</v>
       </c>
       <c r="AG3">
-        <v>225.1604011868544</v>
+        <v>43.3</v>
       </c>
       <c r="AH3">
-        <v>0.789988584499825</v>
+        <v>0.28125</v>
       </c>
       <c r="AI3">
-        <v>0.8950695978182945</v>
+        <v>0.9058882737795672</v>
       </c>
       <c r="AJ3">
-        <v>0.7868328400889794</v>
+        <v>0.2388306674020959</v>
       </c>
       <c r="AK3">
-        <v>0.8932795477856166</v>
+        <v>0.8852995297485177</v>
       </c>
       <c r="AL3">
-        <v>1.43</v>
+        <v>3.3</v>
       </c>
       <c r="AM3">
-        <v>1.208</v>
+        <v>3.3</v>
       </c>
       <c r="AN3">
-        <v>2.182044887780549</v>
+        <v>6.976744186046512</v>
       </c>
       <c r="AO3">
-        <v>-20.62937062937063</v>
+        <v>0.8303030303030304</v>
       </c>
       <c r="AP3">
-        <v>5.61497259817592</v>
+        <v>5.594315245478036</v>
       </c>
       <c r="AQ3">
-        <v>-24.42052980132451</v>
+        <v>0.8303030303030304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Beter Bed Holding N.V. (ENXTAM:BBED)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ENXTAM:BBED</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Retail (Building Supply)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.28125</v>
+      </c>
+      <c r="F2">
+        <v>0.01</v>
+      </c>
+      <c r="G2">
+        <v>138</v>
+      </c>
+      <c r="H2">
+        <v>125.542111150372</v>
+      </c>
+      <c r="I2">
+        <v>181.3</v>
+      </c>
+      <c r="J2">
+        <v>116.762111150372</v>
+      </c>
+      <c r="K2">
+        <v>54</v>
+      </c>
+      <c r="L2">
+        <v>1.92</v>
+      </c>
+      <c r="M2">
+        <v>0.058496638731434</v>
+      </c>
+      <c r="N2">
+        <v>0.08568908301788269</v>
+      </c>
+      <c r="O2">
+        <v>0.01935</v>
+      </c>
+      <c r="P2">
+        <v>2.13161666666667</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.07381488866982119</v>
+      </c>
+      <c r="T2">
+        <v>0.0650231478295111</v>
+      </c>
+      <c r="U2">
+        <v>1.36684086164875</v>
+      </c>
+      <c r="V2">
+        <v>1.18057516587947</v>
+      </c>
+      <c r="W2">
+        <v>-42.41516966067864</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>138</v>
+      </c>
+      <c r="AB2">
+        <v>0.0472</v>
+      </c>
+      <c r="AC2">
+        <v>0.0258</v>
+      </c>
+      <c r="AD2">
+        <v>0.25</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>7.74</v>
+      </c>
+      <c r="AH2">
+        <v>22.7</v>
+      </c>
+      <c r="AI2">
+        <v>4.82</v>
+      </c>
+      <c r="AJ2">
+        <v>54</v>
+      </c>
+      <c r="AK2">
+        <v>54</v>
+      </c>
+      <c r="AL2">
+        <v>3.3</v>
+      </c>
+      <c r="AM2">
+        <v>54</v>
+      </c>
+      <c r="AN2">
+        <v>10.7</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>-54</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>10.7</v>
+      </c>
+      <c r="H2">
+        <v>138</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>7.74</v>
+      </c>
+      <c r="K2">
+        <v>22.7</v>
+      </c>
+      <c r="L2">
+        <v>-14.96</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>-14.96</v>
+      </c>
+      <c r="O2">
+        <v>-3.74</v>
+      </c>
+      <c r="P2">
+        <v>-11.22</v>
+      </c>
+      <c r="Q2">
+        <v>11.48</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.08568908301788267</v>
+      </c>
+      <c r="C3">
+        <v>125.5421111503716</v>
+      </c>
+      <c r="D3">
+        <v>116.7621111503716</v>
+      </c>
+      <c r="E3">
+        <v>-52.08</v>
+      </c>
+      <c r="F3">
+        <v>1.92</v>
+      </c>
+      <c r="G3">
+        <v>10.7</v>
+      </c>
+      <c r="H3">
+        <v>138</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>7.74</v>
+      </c>
+      <c r="K3">
+        <v>22.7</v>
+      </c>
+      <c r="L3">
+        <v>-14.96</v>
+      </c>
+      <c r="M3">
+        <v>0.352704</v>
+      </c>
+      <c r="N3">
+        <v>-15.312704</v>
+      </c>
+      <c r="O3">
+        <v>-3.828176</v>
+      </c>
+      <c r="P3">
+        <v>-11.484528</v>
+      </c>
+      <c r="Q3">
+        <v>11.215472</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.06502314782951112</v>
+      </c>
+      <c r="T3">
+        <v>1.180575165879473</v>
+      </c>
+      <c r="U3">
+        <v>0.1837</v>
+      </c>
+      <c r="V3">
+        <v>-10.60379241516966</v>
+      </c>
+      <c r="W3">
+        <v>2.131616666666666</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>-42.41516966067864</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.08743308301788268</v>
+      </c>
+      <c r="C4">
+        <v>121.015876838593</v>
+      </c>
+      <c r="D4">
+        <v>114.155876838593</v>
+      </c>
+      <c r="E4">
+        <v>-50.16</v>
+      </c>
+      <c r="F4">
+        <v>3.84</v>
+      </c>
+      <c r="G4">
+        <v>10.7</v>
+      </c>
+      <c r="H4">
+        <v>138</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>7.74</v>
+      </c>
+      <c r="K4">
+        <v>22.7</v>
+      </c>
+      <c r="L4">
+        <v>-14.96</v>
+      </c>
+      <c r="M4">
+        <v>0.705408</v>
+      </c>
+      <c r="N4">
+        <v>-15.665408</v>
+      </c>
+      <c r="O4">
+        <v>-3.916352</v>
+      </c>
+      <c r="P4">
+        <v>-11.749056</v>
+      </c>
+      <c r="Q4">
+        <v>10.950944</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.06559175137879185</v>
+      </c>
+      <c r="T4">
+        <v>1.19262185124559</v>
+      </c>
+      <c r="U4">
+        <v>0.1837</v>
+      </c>
+      <c r="V4">
+        <v>-5.301896207584829</v>
+      </c>
+      <c r="W4">
+        <v>1.157658333333333</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>-21.20758483033932</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.08917708301788267</v>
+      </c>
+      <c r="C5">
+        <v>116.6034492024719</v>
+      </c>
+      <c r="D5">
+        <v>111.6634492024719</v>
+      </c>
+      <c r="E5">
+        <v>-48.24</v>
+      </c>
+      <c r="F5">
+        <v>5.76</v>
+      </c>
+      <c r="G5">
+        <v>10.7</v>
+      </c>
+      <c r="H5">
+        <v>138</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>7.74</v>
+      </c>
+      <c r="K5">
+        <v>22.7</v>
+      </c>
+      <c r="L5">
+        <v>-14.96</v>
+      </c>
+      <c r="M5">
+        <v>1.058112</v>
+      </c>
+      <c r="N5">
+        <v>-16.018112</v>
+      </c>
+      <c r="O5">
+        <v>-4.004528</v>
+      </c>
+      <c r="P5">
+        <v>-12.013584</v>
+      </c>
+      <c r="Q5">
+        <v>10.686416</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.06617207871259383</v>
+      </c>
+      <c r="T5">
+        <v>1.204916921876988</v>
+      </c>
+      <c r="U5">
+        <v>0.1837</v>
+      </c>
+      <c r="V5">
+        <v>-3.53459747172322</v>
+      </c>
+      <c r="W5">
+        <v>0.8330055555555556</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>-14.13838988689288</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.09092108301788267</v>
+      </c>
+      <c r="C6">
+        <v>112.2975331105911</v>
+      </c>
+      <c r="D6">
+        <v>109.2775331105911</v>
+      </c>
+      <c r="E6">
+        <v>-46.32</v>
+      </c>
+      <c r="F6">
+        <v>7.68</v>
+      </c>
+      <c r="G6">
+        <v>10.7</v>
+      </c>
+      <c r="H6">
+        <v>138</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>7.74</v>
+      </c>
+      <c r="K6">
+        <v>22.7</v>
+      </c>
+      <c r="L6">
+        <v>-14.96</v>
+      </c>
+      <c r="M6">
+        <v>1.410816</v>
+      </c>
+      <c r="N6">
+        <v>-16.370816</v>
+      </c>
+      <c r="O6">
+        <v>-4.092703999999999</v>
+      </c>
+      <c r="P6">
+        <v>-12.278112</v>
+      </c>
+      <c r="Q6">
+        <v>10.421888</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.06676449619918334</v>
+      </c>
+      <c r="T6">
+        <v>1.217468139813206</v>
+      </c>
+      <c r="U6">
+        <v>0.1837</v>
+      </c>
+      <c r="V6">
+        <v>-2.650948103792415</v>
+      </c>
+      <c r="W6">
+        <v>0.6706791666666666</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>-10.60379241516966</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.09266508301788268</v>
+      </c>
+      <c r="C7">
+        <v>108.0914438889922</v>
+      </c>
+      <c r="D7">
+        <v>106.9914438889923</v>
+      </c>
+      <c r="E7">
+        <v>-44.4</v>
+      </c>
+      <c r="F7">
+        <v>9.600000000000001</v>
+      </c>
+      <c r="G7">
+        <v>10.7</v>
+      </c>
+      <c r="H7">
+        <v>138</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>7.74</v>
+      </c>
+      <c r="K7">
+        <v>22.7</v>
+      </c>
+      <c r="L7">
+        <v>-14.96</v>
+      </c>
+      <c r="M7">
+        <v>1.76352</v>
+      </c>
+      <c r="N7">
+        <v>-16.72352</v>
+      </c>
+      <c r="O7">
+        <v>-4.18088</v>
+      </c>
+      <c r="P7">
+        <v>-12.54264</v>
+      </c>
+      <c r="Q7">
+        <v>10.15736</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.06736938563285895</v>
+      </c>
+      <c r="T7">
+        <v>1.230283593916503</v>
+      </c>
+      <c r="U7">
+        <v>0.1837</v>
+      </c>
+      <c r="V7">
+        <v>-2.120758483033932</v>
+      </c>
+      <c r="W7">
+        <v>0.5732833333333333</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>-8.483033932135728</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.09440908301788266</v>
+      </c>
+      <c r="C8">
+        <v>103.9790447756897</v>
+      </c>
+      <c r="D8">
+        <v>104.7990447756897</v>
+      </c>
+      <c r="E8">
+        <v>-42.48</v>
+      </c>
+      <c r="F8">
+        <v>11.52</v>
+      </c>
+      <c r="G8">
+        <v>10.7</v>
+      </c>
+      <c r="H8">
+        <v>138</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>7.74</v>
+      </c>
+      <c r="K8">
+        <v>22.7</v>
+      </c>
+      <c r="L8">
+        <v>-14.96</v>
+      </c>
+      <c r="M8">
+        <v>2.116224</v>
+      </c>
+      <c r="N8">
+        <v>-17.076224</v>
+      </c>
+      <c r="O8">
+        <v>-4.269056</v>
+      </c>
+      <c r="P8">
+        <v>-12.807168</v>
+      </c>
+      <c r="Q8">
+        <v>9.892831999999999</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.06798714505448511</v>
+      </c>
+      <c r="T8">
+        <v>1.243371717256041</v>
+      </c>
+      <c r="U8">
+        <v>0.1837</v>
+      </c>
+      <c r="V8">
+        <v>-1.76729873586161</v>
+      </c>
+      <c r="W8">
+        <v>0.5083527777777778</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>-7.069194943446441</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.09615308301788267</v>
+      </c>
+      <c r="C9">
+        <v>99.95469191062017</v>
+      </c>
+      <c r="D9">
+        <v>102.6946919106202</v>
+      </c>
+      <c r="E9">
+        <v>-40.56</v>
+      </c>
+      <c r="F9">
+        <v>13.44</v>
+      </c>
+      <c r="G9">
+        <v>10.7</v>
+      </c>
+      <c r="H9">
+        <v>138</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>7.74</v>
+      </c>
+      <c r="K9">
+        <v>22.7</v>
+      </c>
+      <c r="L9">
+        <v>-14.96</v>
+      </c>
+      <c r="M9">
+        <v>2.468928</v>
+      </c>
+      <c r="N9">
+        <v>-17.428928</v>
+      </c>
+      <c r="O9">
+        <v>-4.357232</v>
+      </c>
+      <c r="P9">
+        <v>-13.071696</v>
+      </c>
+      <c r="Q9">
+        <v>9.628304</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.06861818962496345</v>
+      </c>
+      <c r="T9">
+        <v>1.256741305613633</v>
+      </c>
+      <c r="U9">
+        <v>0.1837</v>
+      </c>
+      <c r="V9">
+        <v>-1.51482748788138</v>
+      </c>
+      <c r="W9">
+        <v>0.4619738095238095</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>-6.059309951525519</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.09789708301788266</v>
+      </c>
+      <c r="C10">
+        <v>96.01318582270561</v>
+      </c>
+      <c r="D10">
+        <v>100.6731858227056</v>
+      </c>
+      <c r="E10">
+        <v>-38.64</v>
+      </c>
+      <c r="F10">
+        <v>15.36</v>
+      </c>
+      <c r="G10">
+        <v>10.7</v>
+      </c>
+      <c r="H10">
+        <v>138</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>7.74</v>
+      </c>
+      <c r="K10">
+        <v>22.7</v>
+      </c>
+      <c r="L10">
+        <v>-14.96</v>
+      </c>
+      <c r="M10">
+        <v>2.821632</v>
+      </c>
+      <c r="N10">
+        <v>-17.781632</v>
+      </c>
+      <c r="O10">
+        <v>-4.445408</v>
+      </c>
+      <c r="P10">
+        <v>-13.336224</v>
+      </c>
+      <c r="Q10">
+        <v>9.363776000000001</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.06926295255566957</v>
+      </c>
+      <c r="T10">
+        <v>1.270401537196389</v>
+      </c>
+      <c r="U10">
+        <v>0.1837</v>
+      </c>
+      <c r="V10">
+        <v>-1.325474051896207</v>
+      </c>
+      <c r="W10">
+        <v>0.4271895833333332</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>-5.301896207584829</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.09964108301788267</v>
+      </c>
+      <c r="C11">
+        <v>92.14972853605734</v>
+      </c>
+      <c r="D11">
+        <v>98.72972853605734</v>
+      </c>
+      <c r="E11">
+        <v>-36.72</v>
+      </c>
+      <c r="F11">
+        <v>17.28</v>
+      </c>
+      <c r="G11">
+        <v>10.7</v>
+      </c>
+      <c r="H11">
+        <v>138</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>7.74</v>
+      </c>
+      <c r="K11">
+        <v>22.7</v>
+      </c>
+      <c r="L11">
+        <v>-14.96</v>
+      </c>
+      <c r="M11">
+        <v>3.174336</v>
+      </c>
+      <c r="N11">
+        <v>-18.134336</v>
+      </c>
+      <c r="O11">
+        <v>-4.533583999999999</v>
+      </c>
+      <c r="P11">
+        <v>-13.600752</v>
+      </c>
+      <c r="Q11">
+        <v>9.099248000000001</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.06992188610023738</v>
+      </c>
+      <c r="T11">
+        <v>1.284361993649097</v>
+      </c>
+      <c r="U11">
+        <v>0.1837</v>
+      </c>
+      <c r="V11">
+        <v>-1.178199157241073</v>
+      </c>
+      <c r="W11">
+        <v>0.4001351851851851</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>-4.712796628964292</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.1013850830178827</v>
+      </c>
+      <c r="C12">
+        <v>88.35988555037585</v>
+      </c>
+      <c r="D12">
+        <v>96.85988555037585</v>
+      </c>
+      <c r="E12">
+        <v>-34.8</v>
+      </c>
+      <c r="F12">
+        <v>19.2</v>
+      </c>
+      <c r="G12">
+        <v>10.7</v>
+      </c>
+      <c r="H12">
+        <v>138</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>7.74</v>
+      </c>
+      <c r="K12">
+        <v>22.7</v>
+      </c>
+      <c r="L12">
+        <v>-14.96</v>
+      </c>
+      <c r="M12">
+        <v>3.52704</v>
+      </c>
+      <c r="N12">
+        <v>-18.48704</v>
+      </c>
+      <c r="O12">
+        <v>-4.62176</v>
+      </c>
+      <c r="P12">
+        <v>-13.86528</v>
+      </c>
+      <c r="Q12">
+        <v>8.834719999999999</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.07059546261246225</v>
+      </c>
+      <c r="T12">
+        <v>1.29863268246742</v>
+      </c>
+      <c r="U12">
+        <v>0.1837</v>
+      </c>
+      <c r="V12">
+        <v>-1.060379241516966</v>
+      </c>
+      <c r="W12">
+        <v>0.3784916666666666</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>-4.241516966067864</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.1031290830178827</v>
+      </c>
+      <c r="C13">
+        <v>84.63955206136946</v>
+      </c>
+      <c r="D13">
+        <v>95.05955206136946</v>
+      </c>
+      <c r="E13">
+        <v>-32.88</v>
+      </c>
+      <c r="F13">
+        <v>21.12</v>
+      </c>
+      <c r="G13">
+        <v>10.7</v>
+      </c>
+      <c r="H13">
+        <v>138</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>7.74</v>
+      </c>
+      <c r="K13">
+        <v>22.7</v>
+      </c>
+      <c r="L13">
+        <v>-14.96</v>
+      </c>
+      <c r="M13">
+        <v>3.879744</v>
+      </c>
+      <c r="N13">
+        <v>-18.839744</v>
+      </c>
+      <c r="O13">
+        <v>-4.709936</v>
+      </c>
+      <c r="P13">
+        <v>-14.129808</v>
+      </c>
+      <c r="Q13">
+        <v>8.570191999999999</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.07128417567552361</v>
+      </c>
+      <c r="T13">
+        <v>1.31322406092211</v>
+      </c>
+      <c r="U13">
+        <v>0.1837</v>
+      </c>
+      <c r="V13">
+        <v>-0.9639811286517872</v>
+      </c>
+      <c r="W13">
+        <v>0.3607833333333333</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>-3.855924514607149</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.1048730830178827</v>
+      </c>
+      <c r="C14">
+        <v>80.98492287959442</v>
+      </c>
+      <c r="D14">
+        <v>93.32492287959441</v>
+      </c>
+      <c r="E14">
+        <v>-30.96</v>
+      </c>
+      <c r="F14">
+        <v>23.04</v>
+      </c>
+      <c r="G14">
+        <v>10.7</v>
+      </c>
+      <c r="H14">
+        <v>138</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>7.74</v>
+      </c>
+      <c r="K14">
+        <v>22.7</v>
+      </c>
+      <c r="L14">
+        <v>-14.96</v>
+      </c>
+      <c r="M14">
+        <v>4.232448</v>
+      </c>
+      <c r="N14">
+        <v>-19.192448</v>
+      </c>
+      <c r="O14">
+        <v>-4.798112</v>
+      </c>
+      <c r="P14">
+        <v>-14.394336</v>
+      </c>
+      <c r="Q14">
+        <v>8.305664</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.07198854130820001</v>
+      </c>
+      <c r="T14">
+        <v>1.328147061614407</v>
+      </c>
+      <c r="U14">
+        <v>0.1837</v>
+      </c>
+      <c r="V14">
+        <v>-0.8836493679308051</v>
+      </c>
+      <c r="W14">
+        <v>0.3460263888888889</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>-3.53459747172322</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.1066170830178827</v>
+      </c>
+      <c r="C15">
+        <v>77.39246558376587</v>
+      </c>
+      <c r="D15">
+        <v>91.65246558376586</v>
+      </c>
+      <c r="E15">
+        <v>-29.04</v>
+      </c>
+      <c r="F15">
+        <v>24.96</v>
+      </c>
+      <c r="G15">
+        <v>10.7</v>
+      </c>
+      <c r="H15">
+        <v>138</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>7.74</v>
+      </c>
+      <c r="K15">
+        <v>22.7</v>
+      </c>
+      <c r="L15">
+        <v>-14.96</v>
+      </c>
+      <c r="M15">
+        <v>4.585152</v>
+      </c>
+      <c r="N15">
+        <v>-19.545152</v>
+      </c>
+      <c r="O15">
+        <v>-4.886288</v>
+      </c>
+      <c r="P15">
+        <v>-14.658864</v>
+      </c>
+      <c r="Q15">
+        <v>8.041136000000002</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.07270909925427128</v>
+      </c>
+      <c r="T15">
+        <v>1.343413119793883</v>
+      </c>
+      <c r="U15">
+        <v>0.1837</v>
+      </c>
+      <c r="V15">
+        <v>-0.8156763396284354</v>
+      </c>
+      <c r="W15">
+        <v>0.3335397435897436</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>-3.262705358513742</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.1083610830178827</v>
+      </c>
+      <c r="C16">
+        <v>73.85889650993255</v>
+      </c>
+      <c r="D16">
+        <v>90.03889650993254</v>
+      </c>
+      <c r="E16">
+        <v>-27.12</v>
+      </c>
+      <c r="F16">
+        <v>26.88</v>
+      </c>
+      <c r="G16">
+        <v>10.7</v>
+      </c>
+      <c r="H16">
+        <v>138</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>7.74</v>
+      </c>
+      <c r="K16">
+        <v>22.7</v>
+      </c>
+      <c r="L16">
+        <v>-14.96</v>
+      </c>
+      <c r="M16">
+        <v>4.937856000000001</v>
+      </c>
+      <c r="N16">
+        <v>-19.897856</v>
+      </c>
+      <c r="O16">
+        <v>-4.974464</v>
+      </c>
+      <c r="P16">
+        <v>-14.923392</v>
+      </c>
+      <c r="Q16">
+        <v>7.776608</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.07344641436187908</v>
+      </c>
+      <c r="T16">
+        <v>1.359034202582184</v>
+      </c>
+      <c r="U16">
+        <v>0.1837</v>
+      </c>
+      <c r="V16">
+        <v>-0.7574137439406898</v>
+      </c>
+      <c r="W16">
+        <v>0.3228369047619047</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>-3.029654975762759</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.1101050830178827</v>
+      </c>
+      <c r="C17">
+        <v>70.38115923307851</v>
+      </c>
+      <c r="D17">
+        <v>88.4811592330785</v>
+      </c>
+      <c r="E17">
+        <v>-25.2</v>
+      </c>
+      <c r="F17">
+        <v>28.8</v>
+      </c>
+      <c r="G17">
+        <v>10.7</v>
+      </c>
+      <c r="H17">
+        <v>138</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>7.74</v>
+      </c>
+      <c r="K17">
+        <v>22.7</v>
+      </c>
+      <c r="L17">
+        <v>-14.96</v>
+      </c>
+      <c r="M17">
+        <v>5.290559999999999</v>
+      </c>
+      <c r="N17">
+        <v>-20.25056</v>
+      </c>
+      <c r="O17">
+        <v>-5.06264</v>
+      </c>
+      <c r="P17">
+        <v>-15.18792</v>
+      </c>
+      <c r="Q17">
+        <v>7.512079999999999</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.07420107806025414</v>
+      </c>
+      <c r="T17">
+        <v>1.375022840259622</v>
+      </c>
+      <c r="U17">
+        <v>0.1837</v>
+      </c>
+      <c r="V17">
+        <v>-0.7069194943446441</v>
+      </c>
+      <c r="W17">
+        <v>0.3135611111111111</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>-2.827677977378577</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.1118490830178827</v>
+      </c>
+      <c r="C18">
+        <v>66.95640524443895</v>
+      </c>
+      <c r="D18">
+        <v>86.97640524443895</v>
+      </c>
+      <c r="E18">
+        <v>-23.28</v>
+      </c>
+      <c r="F18">
+        <v>30.72</v>
+      </c>
+      <c r="G18">
+        <v>10.7</v>
+      </c>
+      <c r="H18">
+        <v>138</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>7.74</v>
+      </c>
+      <c r="K18">
+        <v>22.7</v>
+      </c>
+      <c r="L18">
+        <v>-14.96</v>
+      </c>
+      <c r="M18">
+        <v>5.643264</v>
+      </c>
+      <c r="N18">
+        <v>-20.603264</v>
+      </c>
+      <c r="O18">
+        <v>-5.150816</v>
+      </c>
+      <c r="P18">
+        <v>-15.452448</v>
+      </c>
+      <c r="Q18">
+        <v>7.247551999999999</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.07497370994192383</v>
+      </c>
+      <c r="T18">
+        <v>1.391392159786522</v>
+      </c>
+      <c r="U18">
+        <v>0.1837</v>
+      </c>
+      <c r="V18">
+        <v>-0.6627370259481037</v>
+      </c>
+      <c r="W18">
+        <v>0.3054447916666666</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>-2.650948103792415</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.1135930830178827</v>
+      </c>
+      <c r="C19">
+        <v>63.5819765675123</v>
+      </c>
+      <c r="D19">
+        <v>85.5219765675123</v>
+      </c>
+      <c r="E19">
+        <v>-21.36</v>
+      </c>
+      <c r="F19">
+        <v>32.64</v>
+      </c>
+      <c r="G19">
+        <v>10.7</v>
+      </c>
+      <c r="H19">
+        <v>138</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>7.74</v>
+      </c>
+      <c r="K19">
+        <v>22.7</v>
+      </c>
+      <c r="L19">
+        <v>-14.96</v>
+      </c>
+      <c r="M19">
+        <v>5.995968</v>
+      </c>
+      <c r="N19">
+        <v>-20.955968</v>
+      </c>
+      <c r="O19">
+        <v>-5.238992</v>
+      </c>
+      <c r="P19">
+        <v>-15.716976</v>
+      </c>
+      <c r="Q19">
+        <v>6.983024</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.0757649594592964</v>
+      </c>
+      <c r="T19">
+        <v>1.408155920747805</v>
+      </c>
+      <c r="U19">
+        <v>0.1837</v>
+      </c>
+      <c r="V19">
+        <v>-0.62375249500998</v>
+      </c>
+      <c r="W19">
+        <v>0.2982833333333333</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>-2.495009980039919</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.1153370830178827</v>
+      </c>
+      <c r="C20">
+        <v>60.25539008956675</v>
+      </c>
+      <c r="D20">
+        <v>84.11539008956674</v>
+      </c>
+      <c r="E20">
+        <v>-19.44</v>
+      </c>
+      <c r="F20">
+        <v>34.56</v>
+      </c>
+      <c r="G20">
+        <v>10.7</v>
+      </c>
+      <c r="H20">
+        <v>138</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>7.74</v>
+      </c>
+      <c r="K20">
+        <v>22.7</v>
+      </c>
+      <c r="L20">
+        <v>-14.96</v>
+      </c>
+      <c r="M20">
+        <v>6.348672000000001</v>
+      </c>
+      <c r="N20">
+        <v>-21.308672</v>
+      </c>
+      <c r="O20">
+        <v>-5.327168</v>
+      </c>
+      <c r="P20">
+        <v>-15.981504</v>
+      </c>
+      <c r="Q20">
+        <v>6.718495999999998</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.07657550774538538</v>
+      </c>
+      <c r="T20">
+        <v>1.425328553927656</v>
+      </c>
+      <c r="U20">
+        <v>0.1837</v>
+      </c>
+      <c r="V20">
+        <v>-0.5890995786205366</v>
+      </c>
+      <c r="W20">
+        <v>0.2919175925925926</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>-2.356398314482147</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.1170810830178827</v>
+      </c>
+      <c r="C21">
+        <v>56.97432341433336</v>
+      </c>
+      <c r="D21">
+        <v>82.75432341433336</v>
+      </c>
+      <c r="E21">
+        <v>-17.52</v>
+      </c>
+      <c r="F21">
+        <v>36.48</v>
+      </c>
+      <c r="G21">
+        <v>10.7</v>
+      </c>
+      <c r="H21">
+        <v>138</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>7.74</v>
+      </c>
+      <c r="K21">
+        <v>22.7</v>
+      </c>
+      <c r="L21">
+        <v>-14.96</v>
+      </c>
+      <c r="M21">
+        <v>6.701376000000001</v>
+      </c>
+      <c r="N21">
+        <v>-21.661376</v>
+      </c>
+      <c r="O21">
+        <v>-5.415344</v>
+      </c>
+      <c r="P21">
+        <v>-16.246032</v>
+      </c>
+      <c r="Q21">
+        <v>6.453968</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.07740606956940248</v>
+      </c>
+      <c r="T21">
+        <v>1.442925202741578</v>
+      </c>
+      <c r="U21">
+        <v>0.1837</v>
+      </c>
+      <c r="V21">
+        <v>-0.5580943376405084</v>
+      </c>
+      <c r="W21">
+        <v>0.2862219298245614</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>-2.232377350562034</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.1188250830178827</v>
+      </c>
+      <c r="C22">
+        <v>53.73660206632916</v>
+      </c>
+      <c r="D22">
+        <v>81.43660206632916</v>
+      </c>
+      <c r="E22">
+        <v>-15.59999999999999</v>
+      </c>
+      <c r="F22">
+        <v>38.40000000000001</v>
+      </c>
+      <c r="G22">
+        <v>10.7</v>
+      </c>
+      <c r="H22">
+        <v>138</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>7.74</v>
+      </c>
+      <c r="K22">
+        <v>22.7</v>
+      </c>
+      <c r="L22">
+        <v>-14.96</v>
+      </c>
+      <c r="M22">
+        <v>7.054080000000001</v>
+      </c>
+      <c r="N22">
+        <v>-22.01408</v>
+      </c>
+      <c r="O22">
+        <v>-5.50352</v>
+      </c>
+      <c r="P22">
+        <v>-16.51056</v>
+      </c>
+      <c r="Q22">
+        <v>6.189440000000001</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.07825739543902001</v>
+      </c>
+      <c r="T22">
+        <v>1.460961767775848</v>
+      </c>
+      <c r="U22">
+        <v>0.1837</v>
+      </c>
+      <c r="V22">
+        <v>-0.530189620758483</v>
+      </c>
+      <c r="W22">
+        <v>0.2810958333333333</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>-2.120758483033932</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.1205690830178827</v>
+      </c>
+      <c r="C23">
+        <v>50.54018789851532</v>
+      </c>
+      <c r="D23">
+        <v>80.16018789851532</v>
+      </c>
+      <c r="E23">
+        <v>-13.68</v>
+      </c>
+      <c r="F23">
+        <v>40.32</v>
+      </c>
+      <c r="G23">
+        <v>10.7</v>
+      </c>
+      <c r="H23">
+        <v>138</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>7.74</v>
+      </c>
+      <c r="K23">
+        <v>22.7</v>
+      </c>
+      <c r="L23">
+        <v>-14.96</v>
+      </c>
+      <c r="M23">
+        <v>7.406784</v>
+      </c>
+      <c r="N23">
+        <v>-22.366784</v>
+      </c>
+      <c r="O23">
+        <v>-5.591696</v>
+      </c>
+      <c r="P23">
+        <v>-16.775088</v>
+      </c>
+      <c r="Q23">
+        <v>5.924911999999999</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.07913027386229875</v>
+      </c>
+      <c r="T23">
+        <v>1.479454954709719</v>
+      </c>
+      <c r="U23">
+        <v>0.1837</v>
+      </c>
+      <c r="V23">
+        <v>-0.50494249596046</v>
+      </c>
+      <c r="W23">
+        <v>0.2764579365079365</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>-2.01976998384184</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.1223130830178827</v>
+      </c>
+      <c r="C24">
+        <v>47.38316857330246</v>
+      </c>
+      <c r="D24">
+        <v>78.92316857330246</v>
+      </c>
+      <c r="E24">
+        <v>-11.76</v>
+      </c>
+      <c r="F24">
+        <v>42.24</v>
+      </c>
+      <c r="G24">
+        <v>10.7</v>
+      </c>
+      <c r="H24">
+        <v>138</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>7.74</v>
+      </c>
+      <c r="K24">
+        <v>22.7</v>
+      </c>
+      <c r="L24">
+        <v>-14.96</v>
+      </c>
+      <c r="M24">
+        <v>7.759488</v>
+      </c>
+      <c r="N24">
+        <v>-22.719488</v>
+      </c>
+      <c r="O24">
+        <v>-5.679872</v>
+      </c>
+      <c r="P24">
+        <v>-17.039616</v>
+      </c>
+      <c r="Q24">
+        <v>5.660384000000001</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.08002553378361026</v>
+      </c>
+      <c r="T24">
+        <v>1.498422325923946</v>
+      </c>
+      <c r="U24">
+        <v>0.1837</v>
+      </c>
+      <c r="V24">
+        <v>-0.4819905643258936</v>
+      </c>
+      <c r="W24">
+        <v>0.2722416666666667</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>-1.927962257303574</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.1240570830178827</v>
+      </c>
+      <c r="C25">
+        <v>44.26374800271864</v>
+      </c>
+      <c r="D25">
+        <v>77.72374800271864</v>
+      </c>
+      <c r="E25">
+        <v>-9.839999999999996</v>
+      </c>
+      <c r="F25">
+        <v>44.16</v>
+      </c>
+      <c r="G25">
+        <v>10.7</v>
+      </c>
+      <c r="H25">
+        <v>138</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>7.74</v>
+      </c>
+      <c r="K25">
+        <v>22.7</v>
+      </c>
+      <c r="L25">
+        <v>-14.96</v>
+      </c>
+      <c r="M25">
+        <v>8.112192</v>
+      </c>
+      <c r="N25">
+        <v>-23.072192</v>
+      </c>
+      <c r="O25">
+        <v>-5.768048</v>
+      </c>
+      <c r="P25">
+        <v>-17.304144</v>
+      </c>
+      <c r="Q25">
+        <v>5.395855999999998</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.08094404720937144</v>
+      </c>
+      <c r="T25">
+        <v>1.517882356130751</v>
+      </c>
+      <c r="U25">
+        <v>0.1837</v>
+      </c>
+      <c r="V25">
+        <v>-0.4610344528334634</v>
+      </c>
+      <c r="W25">
+        <v>0.2683920289855072</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>-1.844137811333854</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.1258010830178827</v>
+      </c>
+      <c r="C26">
+        <v>41.18023764723179</v>
+      </c>
+      <c r="D26">
+        <v>76.56023764723179</v>
+      </c>
+      <c r="E26">
+        <v>-7.920000000000002</v>
+      </c>
+      <c r="F26">
+        <v>46.08</v>
+      </c>
+      <c r="G26">
+        <v>10.7</v>
+      </c>
+      <c r="H26">
+        <v>138</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>7.74</v>
+      </c>
+      <c r="K26">
+        <v>22.7</v>
+      </c>
+      <c r="L26">
+        <v>-14.96</v>
+      </c>
+      <c r="M26">
+        <v>8.464896</v>
+      </c>
+      <c r="N26">
+        <v>-23.424896</v>
+      </c>
+      <c r="O26">
+        <v>-5.856223999999999</v>
+      </c>
+      <c r="P26">
+        <v>-17.568672</v>
+      </c>
+      <c r="Q26">
+        <v>5.131328</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.0818867320410737</v>
+      </c>
+      <c r="T26">
+        <v>1.537854492395629</v>
+      </c>
+      <c r="U26">
+        <v>0.1837</v>
+      </c>
+      <c r="V26">
+        <v>-0.4418246839654025</v>
+      </c>
+      <c r="W26">
+        <v>0.2648631944444444</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>-1.76729873586161</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.1275450830178827</v>
+      </c>
+      <c r="C27">
+        <v>38.13104858457471</v>
+      </c>
+      <c r="D27">
+        <v>75.43104858457471</v>
+      </c>
+      <c r="E27">
+        <v>-6</v>
+      </c>
+      <c r="F27">
+        <v>48</v>
+      </c>
+      <c r="G27">
+        <v>10.7</v>
+      </c>
+      <c r="H27">
+        <v>138</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>7.74</v>
+      </c>
+      <c r="K27">
+        <v>22.7</v>
+      </c>
+      <c r="L27">
+        <v>-14.96</v>
+      </c>
+      <c r="M27">
+        <v>8.817600000000001</v>
+      </c>
+      <c r="N27">
+        <v>-23.7776</v>
+      </c>
+      <c r="O27">
+        <v>-5.9444</v>
+      </c>
+      <c r="P27">
+        <v>-17.8332</v>
+      </c>
+      <c r="Q27">
+        <v>4.866800000000001</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.08285455513495468</v>
+      </c>
+      <c r="T27">
+        <v>1.558359218960904</v>
+      </c>
+      <c r="U27">
+        <v>0.1837</v>
+      </c>
+      <c r="V27">
+        <v>-0.4241516966067864</v>
+      </c>
+      <c r="W27">
+        <v>0.2616166666666667</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>-1.696606786427146</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.1292890830178827</v>
+      </c>
+      <c r="C28">
+        <v>35.1146842702321</v>
+      </c>
+      <c r="D28">
+        <v>74.3346842702321</v>
+      </c>
+      <c r="E28">
+        <v>-4.079999999999998</v>
+      </c>
+      <c r="F28">
+        <v>49.92</v>
+      </c>
+      <c r="G28">
+        <v>10.7</v>
+      </c>
+      <c r="H28">
+        <v>138</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>7.74</v>
+      </c>
+      <c r="K28">
+        <v>22.7</v>
+      </c>
+      <c r="L28">
+        <v>-14.96</v>
+      </c>
+      <c r="M28">
+        <v>9.170304</v>
+      </c>
+      <c r="N28">
+        <v>-24.130304</v>
+      </c>
+      <c r="O28">
+        <v>-6.032576</v>
+      </c>
+      <c r="P28">
+        <v>-18.097728</v>
+      </c>
+      <c r="Q28">
+        <v>4.602271999999999</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.08384853560975136</v>
+      </c>
+      <c r="T28">
+        <v>1.579418127325241</v>
+      </c>
+      <c r="U28">
+        <v>0.1837</v>
+      </c>
+      <c r="V28">
+        <v>-0.4078381698142177</v>
+      </c>
+      <c r="W28">
+        <v>0.2586198717948718</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>-1.631352679256871</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.1310330830178827</v>
+      </c>
+      <c r="C29">
+        <v>32.12973392022545</v>
+      </c>
+      <c r="D29">
+        <v>73.26973392022545</v>
+      </c>
+      <c r="E29">
+        <v>-2.159999999999997</v>
+      </c>
+      <c r="F29">
+        <v>51.84</v>
+      </c>
+      <c r="G29">
+        <v>10.7</v>
+      </c>
+      <c r="H29">
+        <v>138</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>7.74</v>
+      </c>
+      <c r="K29">
+        <v>22.7</v>
+      </c>
+      <c r="L29">
+        <v>-14.96</v>
+      </c>
+      <c r="M29">
+        <v>9.523008000000001</v>
+      </c>
+      <c r="N29">
+        <v>-24.483008</v>
+      </c>
+      <c r="O29">
+        <v>-6.120752</v>
+      </c>
+      <c r="P29">
+        <v>-18.362256</v>
+      </c>
+      <c r="Q29">
+        <v>4.337744000000001</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.08486974842632329</v>
+      </c>
+      <c r="T29">
+        <v>1.601053992083121</v>
+      </c>
+      <c r="U29">
+        <v>0.1837</v>
+      </c>
+      <c r="V29">
+        <v>-0.3927330524136911</v>
+      </c>
+      <c r="W29">
+        <v>0.2558450617283951</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>-1.570932209654764</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.1327770830178827</v>
+      </c>
+      <c r="C30">
+        <v>29.17486645467015</v>
+      </c>
+      <c r="D30">
+        <v>72.23486645467015</v>
+      </c>
+      <c r="E30">
+        <v>-0.2399999999999949</v>
+      </c>
+      <c r="F30">
+        <v>53.76000000000001</v>
+      </c>
+      <c r="G30">
+        <v>10.7</v>
+      </c>
+      <c r="H30">
+        <v>138</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>7.74</v>
+      </c>
+      <c r="K30">
+        <v>22.7</v>
+      </c>
+      <c r="L30">
+        <v>-14.96</v>
+      </c>
+      <c r="M30">
+        <v>9.875712000000002</v>
+      </c>
+      <c r="N30">
+        <v>-24.835712</v>
+      </c>
+      <c r="O30">
+        <v>-6.208928</v>
+      </c>
+      <c r="P30">
+        <v>-18.626784</v>
+      </c>
+      <c r="Q30">
+        <v>4.073215999999999</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.0859193282655778</v>
+      </c>
+      <c r="T30">
+        <v>1.623290853084275</v>
+      </c>
+      <c r="U30">
+        <v>0.1837</v>
+      </c>
+      <c r="V30">
+        <v>-0.3787068719703449</v>
+      </c>
+      <c r="W30">
+        <v>0.2532684523809524</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>-1.51482748788138</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.1345210830178827</v>
+      </c>
+      <c r="C31">
+        <v>26.24882494743491</v>
+      </c>
+      <c r="D31">
+        <v>71.2288249474349</v>
+      </c>
+      <c r="E31">
+        <v>1.679999999999993</v>
+      </c>
+      <c r="F31">
+        <v>55.67999999999999</v>
+      </c>
+      <c r="G31">
+        <v>10.7</v>
+      </c>
+      <c r="H31">
+        <v>138</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>7.74</v>
+      </c>
+      <c r="K31">
+        <v>22.7</v>
+      </c>
+      <c r="L31">
+        <v>-14.96</v>
+      </c>
+      <c r="M31">
+        <v>10.228416</v>
+      </c>
+      <c r="N31">
+        <v>-25.188416</v>
+      </c>
+      <c r="O31">
+        <v>-6.297103999999999</v>
+      </c>
+      <c r="P31">
+        <v>-18.891312</v>
+      </c>
+      <c r="Q31">
+        <v>3.808688</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.08699847373410706</v>
+      </c>
+      <c r="T31">
+        <v>1.646154104536167</v>
+      </c>
+      <c r="U31">
+        <v>0.1837</v>
+      </c>
+      <c r="V31">
+        <v>-0.3656480143161952</v>
+      </c>
+      <c r="W31">
+        <v>0.2508695402298851</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>-1.462592057264781</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.1362650830178827</v>
+      </c>
+      <c r="C32">
+        <v>23.35042153323928</v>
+      </c>
+      <c r="D32">
+        <v>70.25042153323928</v>
+      </c>
+      <c r="E32">
+        <v>3.599999999999994</v>
+      </c>
+      <c r="F32">
+        <v>57.59999999999999</v>
+      </c>
+      <c r="G32">
+        <v>10.7</v>
+      </c>
+      <c r="H32">
+        <v>138</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>7.74</v>
+      </c>
+      <c r="K32">
+        <v>22.7</v>
+      </c>
+      <c r="L32">
+        <v>-14.96</v>
+      </c>
+      <c r="M32">
+        <v>10.58112</v>
+      </c>
+      <c r="N32">
+        <v>-25.54112</v>
+      </c>
+      <c r="O32">
+        <v>-6.38528</v>
+      </c>
+      <c r="P32">
+        <v>-19.15584</v>
+      </c>
+      <c r="Q32">
+        <v>3.544160000000002</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.0881084519303086</v>
+      </c>
+      <c r="T32">
+        <v>1.669670591743826</v>
+      </c>
+      <c r="U32">
+        <v>0.1837</v>
+      </c>
+      <c r="V32">
+        <v>-0.353459747172322</v>
+      </c>
+      <c r="W32">
+        <v>0.2486305555555555</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>-1.413838988689288</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.1380090830178827</v>
+      </c>
+      <c r="C33">
+        <v>20.47853272880312</v>
+      </c>
+      <c r="D33">
+        <v>69.29853272880311</v>
+      </c>
+      <c r="E33">
+        <v>5.519999999999996</v>
+      </c>
+      <c r="F33">
+        <v>59.52</v>
+      </c>
+      <c r="G33">
+        <v>10.7</v>
+      </c>
+      <c r="H33">
+        <v>138</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>7.74</v>
+      </c>
+      <c r="K33">
+        <v>22.7</v>
+      </c>
+      <c r="L33">
+        <v>-14.96</v>
+      </c>
+      <c r="M33">
+        <v>10.933824</v>
+      </c>
+      <c r="N33">
+        <v>-25.893824</v>
+      </c>
+      <c r="O33">
+        <v>-6.473456</v>
+      </c>
+      <c r="P33">
+        <v>-19.420368</v>
+      </c>
+      <c r="Q33">
+        <v>3.279631999999999</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.08925060340755944</v>
+      </c>
+      <c r="T33">
+        <v>1.693868716261853</v>
+      </c>
+      <c r="U33">
+        <v>0.1837</v>
+      </c>
+      <c r="V33">
+        <v>-0.3420578198441826</v>
+      </c>
+      <c r="W33">
+        <v>0.2465360215053763</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>-1.36823127937673</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.1397530830178827</v>
+      </c>
+      <c r="C34">
+        <v>17.63209512929873</v>
+      </c>
+      <c r="D34">
+        <v>68.37209512929873</v>
+      </c>
+      <c r="E34">
+        <v>7.439999999999998</v>
+      </c>
+      <c r="F34">
+        <v>61.44</v>
+      </c>
+      <c r="G34">
+        <v>10.7</v>
+      </c>
+      <c r="H34">
+        <v>138</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>7.74</v>
+      </c>
+      <c r="K34">
+        <v>22.7</v>
+      </c>
+      <c r="L34">
+        <v>-14.96</v>
+      </c>
+      <c r="M34">
+        <v>11.286528</v>
+      </c>
+      <c r="N34">
+        <v>-26.246528</v>
+      </c>
+      <c r="O34">
+        <v>-6.561631999999999</v>
+      </c>
+      <c r="P34">
+        <v>-19.684896</v>
+      </c>
+      <c r="Q34">
+        <v>3.015104000000001</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.09042634757531766</v>
+      </c>
+      <c r="T34">
+        <v>1.718778550324527</v>
+      </c>
+      <c r="U34">
+        <v>0.1837</v>
+      </c>
+      <c r="V34">
+        <v>-0.3313685129740518</v>
+      </c>
+      <c r="W34">
+        <v>0.2445723958333333</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>-1.325474051896207</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.1414970830178827</v>
+      </c>
+      <c r="C35">
+        <v>14.81010144544894</v>
+      </c>
+      <c r="D35">
+        <v>67.47010144544893</v>
+      </c>
+      <c r="E35">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="F35">
+        <v>63.36</v>
+      </c>
+      <c r="G35">
+        <v>10.7</v>
+      </c>
+      <c r="H35">
+        <v>138</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>7.74</v>
+      </c>
+      <c r="K35">
+        <v>22.7</v>
+      </c>
+      <c r="L35">
+        <v>-14.96</v>
+      </c>
+      <c r="M35">
+        <v>11.639232</v>
+      </c>
+      <c r="N35">
+        <v>-26.599232</v>
+      </c>
+      <c r="O35">
+        <v>-6.649808</v>
+      </c>
+      <c r="P35">
+        <v>-19.949424</v>
+      </c>
+      <c r="Q35">
+        <v>2.750575999999999</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.09163718858390449</v>
+      </c>
+      <c r="T35">
+        <v>1.7444319615234</v>
+      </c>
+      <c r="U35">
+        <v>0.1837</v>
+      </c>
+      <c r="V35">
+        <v>-0.3213270428839291</v>
+      </c>
+      <c r="W35">
+        <v>0.2427277777777778</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>-1.285308171535716</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.1432410830178827</v>
+      </c>
+      <c r="C36">
+        <v>12.01159685022213</v>
+      </c>
+      <c r="D36">
+        <v>66.59159685022213</v>
+      </c>
+      <c r="E36">
+        <v>11.28</v>
+      </c>
+      <c r="F36">
+        <v>65.28</v>
+      </c>
+      <c r="G36">
+        <v>10.7</v>
+      </c>
+      <c r="H36">
+        <v>138</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>7.74</v>
+      </c>
+      <c r="K36">
+        <v>22.7</v>
+      </c>
+      <c r="L36">
+        <v>-14.96</v>
+      </c>
+      <c r="M36">
+        <v>11.991936</v>
+      </c>
+      <c r="N36">
+        <v>-26.951936</v>
+      </c>
+      <c r="O36">
+        <v>-6.737984</v>
+      </c>
+      <c r="P36">
+        <v>-20.213952</v>
+      </c>
+      <c r="Q36">
+        <v>2.486048</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.09288472174426669</v>
+      </c>
+      <c r="T36">
+        <v>1.770862748819209</v>
+      </c>
+      <c r="U36">
+        <v>0.1837</v>
+      </c>
+      <c r="V36">
+        <v>-0.31187624750499</v>
+      </c>
+      <c r="W36">
+        <v>0.2409916666666667</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>-1.24750499001996</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.1449850830178827</v>
+      </c>
+      <c r="C37">
+        <v>9.235675607269556</v>
+      </c>
+      <c r="D37">
+        <v>65.73567560726956</v>
+      </c>
+      <c r="E37">
+        <v>13.2</v>
+      </c>
+      <c r="F37">
+        <v>67.2</v>
+      </c>
+      <c r="G37">
+        <v>10.7</v>
+      </c>
+      <c r="H37">
+        <v>138</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>7.74</v>
+      </c>
+      <c r="K37">
+        <v>22.7</v>
+      </c>
+      <c r="L37">
+        <v>-14.96</v>
+      </c>
+      <c r="M37">
+        <v>12.34464</v>
+      </c>
+      <c r="N37">
+        <v>-27.30464</v>
+      </c>
+      <c r="O37">
+        <v>-6.82616</v>
+      </c>
+      <c r="P37">
+        <v>-20.47848</v>
+      </c>
+      <c r="Q37">
+        <v>2.221520000000002</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.09417064054033233</v>
+      </c>
+      <c r="T37">
+        <v>1.798106791108736</v>
+      </c>
+      <c r="U37">
+        <v>0.1837</v>
+      </c>
+      <c r="V37">
+        <v>-0.302965497576276</v>
+      </c>
+      <c r="W37">
+        <v>0.2393547619047619</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>-1.211861990305104</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1467290830178827</v>
+      </c>
+      <c r="C38">
+        <v>6.481477956076915</v>
+      </c>
+      <c r="D38">
+        <v>64.90147795607692</v>
+      </c>
+      <c r="E38">
+        <v>15.12</v>
+      </c>
+      <c r="F38">
+        <v>69.12</v>
+      </c>
+      <c r="G38">
+        <v>10.7</v>
+      </c>
+      <c r="H38">
+        <v>138</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>7.74</v>
+      </c>
+      <c r="K38">
+        <v>22.7</v>
+      </c>
+      <c r="L38">
+        <v>-14.96</v>
+      </c>
+      <c r="M38">
+        <v>12.697344</v>
+      </c>
+      <c r="N38">
+        <v>-27.657344</v>
+      </c>
+      <c r="O38">
+        <v>-6.914336</v>
+      </c>
+      <c r="P38">
+        <v>-20.743008</v>
+      </c>
+      <c r="Q38">
+        <v>1.956991999999996</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.09549674429877503</v>
+      </c>
+      <c r="T38">
+        <v>1.82620220971981</v>
+      </c>
+      <c r="U38">
+        <v>0.1837</v>
+      </c>
+      <c r="V38">
+        <v>-0.2945497893102683</v>
+      </c>
+      <c r="W38">
+        <v>0.2378087962962963</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>-1.178199157241073</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1484730830178827</v>
+      </c>
+      <c r="C39">
+        <v>3.748187231311888</v>
+      </c>
+      <c r="D39">
+        <v>64.08818723131188</v>
+      </c>
+      <c r="E39">
+        <v>17.03999999999999</v>
+      </c>
+      <c r="F39">
+        <v>71.03999999999999</v>
+      </c>
+      <c r="G39">
+        <v>10.7</v>
+      </c>
+      <c r="H39">
+        <v>138</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>7.74</v>
+      </c>
+      <c r="K39">
+        <v>22.7</v>
+      </c>
+      <c r="L39">
+        <v>-14.96</v>
+      </c>
+      <c r="M39">
+        <v>13.050048</v>
+      </c>
+      <c r="N39">
+        <v>-28.010048</v>
+      </c>
+      <c r="O39">
+        <v>-7.002511999999999</v>
+      </c>
+      <c r="P39">
+        <v>-21.007536</v>
+      </c>
+      <c r="Q39">
+        <v>1.692464000000001</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.09686494658923177</v>
+      </c>
+      <c r="T39">
+        <v>1.855189546382029</v>
+      </c>
+      <c r="U39">
+        <v>0.1837</v>
+      </c>
+      <c r="V39">
+        <v>-0.2865889841937747</v>
+      </c>
+      <c r="W39">
+        <v>0.2363463963963964</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>-1.146355936775099</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1502170830178827</v>
+      </c>
+      <c r="C40">
+        <v>1.035027196078758</v>
+      </c>
+      <c r="D40">
+        <v>63.29502719607877</v>
+      </c>
+      <c r="E40">
+        <v>18.96000000000001</v>
+      </c>
+      <c r="F40">
+        <v>72.96000000000001</v>
+      </c>
+      <c r="G40">
+        <v>10.7</v>
+      </c>
+      <c r="H40">
+        <v>138</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>7.74</v>
+      </c>
+      <c r="K40">
+        <v>22.7</v>
+      </c>
+      <c r="L40">
+        <v>-14.96</v>
+      </c>
+      <c r="M40">
+        <v>13.402752</v>
+      </c>
+      <c r="N40">
+        <v>-28.362752</v>
+      </c>
+      <c r="O40">
+        <v>-7.090688</v>
+      </c>
+      <c r="P40">
+        <v>-21.272064</v>
+      </c>
+      <c r="Q40">
+        <v>1.427935999999999</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.09827728443744518</v>
+      </c>
+      <c r="T40">
+        <v>1.885111958420449</v>
+      </c>
+      <c r="U40">
+        <v>0.1837</v>
+      </c>
+      <c r="V40">
+        <v>-0.2790471688202542</v>
+      </c>
+      <c r="W40">
+        <v>0.2349609649122807</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>-1.116188675281017</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1519610830178827</v>
+      </c>
+      <c r="C41">
+        <v>-1.658740429224622</v>
+      </c>
+      <c r="D41">
+        <v>62.52125957077537</v>
+      </c>
+      <c r="E41">
+        <v>20.88</v>
+      </c>
+      <c r="F41">
+        <v>74.88</v>
+      </c>
+      <c r="G41">
+        <v>10.7</v>
+      </c>
+      <c r="H41">
+        <v>138</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>7.74</v>
+      </c>
+      <c r="K41">
+        <v>22.7</v>
+      </c>
+      <c r="L41">
+        <v>-14.96</v>
+      </c>
+      <c r="M41">
+        <v>13.755456</v>
+      </c>
+      <c r="N41">
+        <v>-28.715456</v>
+      </c>
+      <c r="O41">
+        <v>-7.178863999999999</v>
+      </c>
+      <c r="P41">
+        <v>-21.536592</v>
+      </c>
+      <c r="Q41">
+        <v>1.163408</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.09973592844461641</v>
+      </c>
+      <c r="T41">
+        <v>1.916015433148653</v>
+      </c>
+      <c r="U41">
+        <v>0.1837</v>
+      </c>
+      <c r="V41">
+        <v>-0.2718921132094785</v>
+      </c>
+      <c r="W41">
+        <v>0.2336465811965812</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>-1.087568452837914</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1537050830178827</v>
+      </c>
+      <c r="C42">
+        <v>-4.333818258984479</v>
+      </c>
+      <c r="D42">
+        <v>61.76618174101554</v>
+      </c>
+      <c r="E42">
+        <v>22.80000000000001</v>
+      </c>
+      <c r="F42">
+        <v>76.80000000000001</v>
+      </c>
+      <c r="G42">
+        <v>10.7</v>
+      </c>
+      <c r="H42">
+        <v>138</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>7.74</v>
+      </c>
+      <c r="K42">
+        <v>22.7</v>
+      </c>
+      <c r="L42">
+        <v>-14.96</v>
+      </c>
+      <c r="M42">
+        <v>14.10816</v>
+      </c>
+      <c r="N42">
+        <v>-29.06816</v>
+      </c>
+      <c r="O42">
+        <v>-7.26704</v>
+      </c>
+      <c r="P42">
+        <v>-21.80112</v>
+      </c>
+      <c r="Q42">
+        <v>0.8988800000000019</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.1012431939186934</v>
+      </c>
+      <c r="T42">
+        <v>1.94794902370113</v>
+      </c>
+      <c r="U42">
+        <v>0.1837</v>
+      </c>
+      <c r="V42">
+        <v>-0.2650948103792415</v>
+      </c>
+      <c r="W42">
+        <v>0.2323979166666666</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>-1.060379241516966</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1554490830178827</v>
+      </c>
+      <c r="C43">
+        <v>-6.990875370339381</v>
+      </c>
+      <c r="D43">
+        <v>61.02912462966061</v>
+      </c>
+      <c r="E43">
+        <v>24.72</v>
+      </c>
+      <c r="F43">
+        <v>78.72</v>
+      </c>
+      <c r="G43">
+        <v>10.7</v>
+      </c>
+      <c r="H43">
+        <v>138</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>7.74</v>
+      </c>
+      <c r="K43">
+        <v>22.7</v>
+      </c>
+      <c r="L43">
+        <v>-14.96</v>
+      </c>
+      <c r="M43">
+        <v>14.460864</v>
+      </c>
+      <c r="N43">
+        <v>-29.420864</v>
+      </c>
+      <c r="O43">
+        <v>-7.355216</v>
+      </c>
+      <c r="P43">
+        <v>-22.065648</v>
+      </c>
+      <c r="Q43">
+        <v>0.6343519999999963</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.1028015531376543</v>
+      </c>
+      <c r="T43">
+        <v>1.980965108848607</v>
+      </c>
+      <c r="U43">
+        <v>0.1837</v>
+      </c>
+      <c r="V43">
+        <v>-0.2586290832968209</v>
+      </c>
+      <c r="W43">
+        <v>0.231210162601626</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>-1.034516333187284</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1571930830178827</v>
+      </c>
+      <c r="C44">
+        <v>-9.630549280587502</v>
+      </c>
+      <c r="D44">
+        <v>60.3094507194125</v>
+      </c>
+      <c r="E44">
+        <v>26.64</v>
+      </c>
+      <c r="F44">
+        <v>80.64</v>
+      </c>
+      <c r="G44">
+        <v>10.7</v>
+      </c>
+      <c r="H44">
+        <v>138</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>7.74</v>
+      </c>
+      <c r="K44">
+        <v>22.7</v>
+      </c>
+      <c r="L44">
+        <v>-14.96</v>
+      </c>
+      <c r="M44">
+        <v>14.813568</v>
+      </c>
+      <c r="N44">
+        <v>-29.773568</v>
+      </c>
+      <c r="O44">
+        <v>-7.443391999999999</v>
+      </c>
+      <c r="P44">
+        <v>-22.330176</v>
+      </c>
+      <c r="Q44">
+        <v>0.3698240000000013</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.1044136488814069</v>
+      </c>
+      <c r="T44">
+        <v>2.015119679690824</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>-0.25247124798023</v>
+      </c>
+      <c r="W44">
+        <v>0.2300789682539683</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>-1.00988499192092</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1589370830178827</v>
+      </c>
+      <c r="C45">
+        <v>-12.25344778631477</v>
+      </c>
+      <c r="D45">
+        <v>59.60655221368524</v>
+      </c>
+      <c r="E45">
+        <v>28.56</v>
+      </c>
+      <c r="F45">
+        <v>82.56</v>
+      </c>
+      <c r="G45">
+        <v>10.7</v>
+      </c>
+      <c r="H45">
+        <v>138</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>7.74</v>
+      </c>
+      <c r="K45">
+        <v>22.7</v>
+      </c>
+      <c r="L45">
+        <v>-14.96</v>
+      </c>
+      <c r="M45">
+        <v>15.166272</v>
+      </c>
+      <c r="N45">
+        <v>-30.126272</v>
+      </c>
+      <c r="O45">
+        <v>-7.531568</v>
+      </c>
+      <c r="P45">
+        <v>-22.594704</v>
+      </c>
+      <c r="Q45">
+        <v>0.1052959999999992</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1060823093880982</v>
+      </c>
+      <c r="T45">
+        <v>2.050472656527505</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>-0.2465998236085967</v>
+      </c>
+      <c r="W45">
+        <v>0.2290003875968992</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>-0.9863992944343869</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1606810830178827</v>
+      </c>
+      <c r="C46">
+        <v>-14.86015067539627</v>
+      </c>
+      <c r="D46">
+        <v>58.91984932460373</v>
+      </c>
+      <c r="E46">
+        <v>30.48</v>
+      </c>
+      <c r="F46">
+        <v>84.48</v>
+      </c>
+      <c r="G46">
+        <v>10.7</v>
+      </c>
+      <c r="H46">
+        <v>138</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>7.74</v>
+      </c>
+      <c r="K46">
+        <v>22.7</v>
+      </c>
+      <c r="L46">
+        <v>-14.96</v>
+      </c>
+      <c r="M46">
+        <v>15.518976</v>
+      </c>
+      <c r="N46">
+        <v>-30.478976</v>
+      </c>
+      <c r="O46">
+        <v>-7.619744</v>
+      </c>
+      <c r="P46">
+        <v>-22.859232</v>
+      </c>
+      <c r="Q46">
+        <v>-0.1592319999999994</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.1078105649128857</v>
+      </c>
+      <c r="T46">
+        <v>2.087088239679782</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>-0.2409952821629468</v>
+      </c>
+      <c r="W46">
+        <v>0.2279708333333333</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>-0.9639811286517872</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1624250830178827</v>
+      </c>
+      <c r="C47">
+        <v>-17.45121132200575</v>
+      </c>
+      <c r="D47">
+        <v>58.24878867799426</v>
+      </c>
+      <c r="E47">
+        <v>32.40000000000001</v>
+      </c>
+      <c r="F47">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="G47">
+        <v>10.7</v>
+      </c>
+      <c r="H47">
+        <v>138</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>7.74</v>
+      </c>
+      <c r="K47">
+        <v>22.7</v>
+      </c>
+      <c r="L47">
+        <v>-14.96</v>
+      </c>
+      <c r="M47">
+        <v>15.87168</v>
+      </c>
+      <c r="N47">
+        <v>-30.83168</v>
+      </c>
+      <c r="O47">
+        <v>-7.70792</v>
+      </c>
+      <c r="P47">
+        <v>-23.12376</v>
+      </c>
+      <c r="Q47">
+        <v>-0.4237599999999979</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.10960166609312</v>
+      </c>
+      <c r="T47">
+        <v>2.125035298583052</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>-0.2356398314482147</v>
+      </c>
+      <c r="W47">
+        <v>0.226987037037037</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>-0.9425593257928584</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1641690830178827</v>
+      </c>
+      <c r="C48">
+        <v>-20.0271581738554</v>
+      </c>
+      <c r="D48">
+        <v>57.59284182614461</v>
+      </c>
+      <c r="E48">
+        <v>34.32000000000001</v>
+      </c>
+      <c r="F48">
+        <v>88.32000000000001</v>
+      </c>
+      <c r="G48">
+        <v>10.7</v>
+      </c>
+      <c r="H48">
+        <v>138</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>7.74</v>
+      </c>
+      <c r="K48">
+        <v>22.7</v>
+      </c>
+      <c r="L48">
+        <v>-14.96</v>
+      </c>
+      <c r="M48">
+        <v>16.224384</v>
+      </c>
+      <c r="N48">
+        <v>-31.184384</v>
+      </c>
+      <c r="O48">
+        <v>-7.796096</v>
+      </c>
+      <c r="P48">
+        <v>-23.388288</v>
+      </c>
+      <c r="Q48">
+        <v>-0.6882880000000036</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1114591043541037</v>
+      </c>
+      <c r="T48">
+        <v>2.164387804112367</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>-0.2305172264167317</v>
+      </c>
+      <c r="W48">
+        <v>0.2260460144927536</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>-0.9220689056669271</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1659130830178827</v>
+      </c>
+      <c r="C49">
+        <v>-22.58849614006685</v>
+      </c>
+      <c r="D49">
+        <v>56.95150385993315</v>
+      </c>
+      <c r="E49">
+        <v>36.24000000000001</v>
+      </c>
+      <c r="F49">
+        <v>90.24000000000001</v>
+      </c>
+      <c r="G49">
+        <v>10.7</v>
+      </c>
+      <c r="H49">
+        <v>138</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>7.74</v>
+      </c>
+      <c r="K49">
+        <v>22.7</v>
+      </c>
+      <c r="L49">
+        <v>-14.96</v>
+      </c>
+      <c r="M49">
+        <v>16.577088</v>
+      </c>
+      <c r="N49">
+        <v>-31.537088</v>
+      </c>
+      <c r="O49">
+        <v>-7.884272000000001</v>
+      </c>
+      <c r="P49">
+        <v>-23.652816</v>
+      </c>
+      <c r="Q49">
+        <v>-0.9528160000000021</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1133866346249359</v>
+      </c>
+      <c r="T49">
+        <v>2.205225309850336</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>-0.2256126045780778</v>
+      </c>
+      <c r="W49">
+        <v>0.2251450354609929</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>-0.9024504183123114</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1676570830178827</v>
+      </c>
+      <c r="C50">
+        <v>-25.13570788733367</v>
+      </c>
+      <c r="D50">
+        <v>56.32429211266633</v>
+      </c>
+      <c r="E50">
+        <v>38.16</v>
+      </c>
+      <c r="F50">
+        <v>92.16</v>
+      </c>
+      <c r="G50">
+        <v>10.7</v>
+      </c>
+      <c r="H50">
+        <v>138</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>7.74</v>
+      </c>
+      <c r="K50">
+        <v>22.7</v>
+      </c>
+      <c r="L50">
+        <v>-14.96</v>
+      </c>
+      <c r="M50">
+        <v>16.929792</v>
+      </c>
+      <c r="N50">
+        <v>-31.889792</v>
+      </c>
+      <c r="O50">
+        <v>-7.972448</v>
+      </c>
+      <c r="P50">
+        <v>-23.917344</v>
+      </c>
+      <c r="Q50">
+        <v>-1.217344000000001</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1153883006754154</v>
+      </c>
+      <c r="T50">
+        <v>2.247633488885919</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>-0.2209123419827013</v>
+      </c>
+      <c r="W50">
+        <v>0.2242815972222222</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>-0.8836493679308051</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1694010830178827</v>
+      </c>
+      <c r="C51">
+        <v>-27.66925505136827</v>
+      </c>
+      <c r="D51">
+        <v>55.71074494863173</v>
+      </c>
+      <c r="E51">
+        <v>40.08</v>
+      </c>
+      <c r="F51">
+        <v>94.08</v>
+      </c>
+      <c r="G51">
+        <v>10.7</v>
+      </c>
+      <c r="H51">
+        <v>138</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>7.74</v>
+      </c>
+      <c r="K51">
+        <v>22.7</v>
+      </c>
+      <c r="L51">
+        <v>-14.96</v>
+      </c>
+      <c r="M51">
+        <v>17.282496</v>
+      </c>
+      <c r="N51">
+        <v>-32.242496</v>
+      </c>
+      <c r="O51">
+        <v>-8.060623999999999</v>
+      </c>
+      <c r="P51">
+        <v>-24.181872</v>
+      </c>
+      <c r="Q51">
+        <v>-1.481871999999999</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1174684634337569</v>
+      </c>
+      <c r="T51">
+        <v>2.291704733766036</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>-0.2164039268401972</v>
+      </c>
+      <c r="W51">
+        <v>0.2234534013605442</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>-0.8656157073607886</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1711450830178827</v>
+      </c>
+      <c r="C52">
+        <v>-30.18957937002352</v>
+      </c>
+      <c r="D52">
+        <v>55.11042062997647</v>
+      </c>
+      <c r="E52">
+        <v>42</v>
+      </c>
+      <c r="F52">
+        <v>96</v>
+      </c>
+      <c r="G52">
+        <v>10.7</v>
+      </c>
+      <c r="H52">
+        <v>138</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>7.74</v>
+      </c>
+      <c r="K52">
+        <v>22.7</v>
+      </c>
+      <c r="L52">
+        <v>-14.96</v>
+      </c>
+      <c r="M52">
+        <v>17.6352</v>
+      </c>
+      <c r="N52">
+        <v>-32.5952</v>
+      </c>
+      <c r="O52">
+        <v>-8.1488</v>
+      </c>
+      <c r="P52">
+        <v>-24.4464</v>
+      </c>
+      <c r="Q52">
+        <v>-1.746399999999998</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.119631832702432</v>
+      </c>
+      <c r="T52">
+        <v>2.337538828441357</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>-0.2120758483033932</v>
+      </c>
+      <c r="W52">
+        <v>0.2226583333333333</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>-0.8483033932135726</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1728890830178827</v>
+      </c>
+      <c r="C53">
+        <v>-32.69710374393405</v>
+      </c>
+      <c r="D53">
+        <v>54.52289625606596</v>
+      </c>
+      <c r="E53">
+        <v>43.92</v>
+      </c>
+      <c r="F53">
+        <v>97.92</v>
+      </c>
+      <c r="G53">
+        <v>10.7</v>
+      </c>
+      <c r="H53">
+        <v>138</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>7.74</v>
+      </c>
+      <c r="K53">
+        <v>22.7</v>
+      </c>
+      <c r="L53">
+        <v>-14.96</v>
+      </c>
+      <c r="M53">
+        <v>17.987904</v>
+      </c>
+      <c r="N53">
+        <v>-32.947904</v>
+      </c>
+      <c r="O53">
+        <v>-8.236976</v>
+      </c>
+      <c r="P53">
+        <v>-24.710928</v>
+      </c>
+      <c r="Q53">
+        <v>-2.010928000000003</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1218835027575837</v>
+      </c>
+      <c r="T53">
+        <v>2.38524370249118</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>-0.20791749833666</v>
+      </c>
+      <c r="W53">
+        <v>0.2218944444444444</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>-0.83166999334664</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1746330830178827</v>
+      </c>
+      <c r="C54">
+        <v>-35.19223323002907</v>
+      </c>
+      <c r="D54">
+        <v>53.94776676997093</v>
+      </c>
+      <c r="E54">
+        <v>45.84</v>
+      </c>
+      <c r="F54">
+        <v>99.84</v>
+      </c>
+      <c r="G54">
+        <v>10.7</v>
+      </c>
+      <c r="H54">
+        <v>138</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>7.74</v>
+      </c>
+      <c r="K54">
+        <v>22.7</v>
+      </c>
+      <c r="L54">
+        <v>-14.96</v>
+      </c>
+      <c r="M54">
+        <v>18.340608</v>
+      </c>
+      <c r="N54">
+        <v>-33.300608</v>
+      </c>
+      <c r="O54">
+        <v>-8.325151999999999</v>
+      </c>
+      <c r="P54">
+        <v>-24.975456</v>
+      </c>
+      <c r="Q54">
+        <v>-2.275455999999998</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1242289923983667</v>
+      </c>
+      <c r="T54">
+        <v>2.434936279626413</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>-0.2039190849071089</v>
+      </c>
+      <c r="W54">
+        <v>0.2211599358974359</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>-0.8156763396284352</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1763770830178827</v>
+      </c>
+      <c r="C55">
+        <v>-37.67535597282175</v>
+      </c>
+      <c r="D55">
+        <v>53.38464402717826</v>
+      </c>
+      <c r="E55">
+        <v>47.76000000000001</v>
+      </c>
+      <c r="F55">
+        <v>101.76</v>
+      </c>
+      <c r="G55">
+        <v>10.7</v>
+      </c>
+      <c r="H55">
+        <v>138</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>7.74</v>
+      </c>
+      <c r="K55">
+        <v>22.7</v>
+      </c>
+      <c r="L55">
+        <v>-14.96</v>
+      </c>
+      <c r="M55">
+        <v>18.693312</v>
+      </c>
+      <c r="N55">
+        <v>-33.653312</v>
+      </c>
+      <c r="O55">
+        <v>-8.413328</v>
+      </c>
+      <c r="P55">
+        <v>-25.239984</v>
+      </c>
+      <c r="Q55">
+        <v>-2.539984</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1266742901089702</v>
+      </c>
+      <c r="T55">
+        <v>2.486743434512082</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>-0.2000715550032011</v>
+      </c>
+      <c r="W55">
+        <v>0.2204531446540881</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>-0.8002862200128043</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1781210830178827</v>
+      </c>
+      <c r="C56">
+        <v>-40.14684407797468</v>
+      </c>
+      <c r="D56">
+        <v>52.83315592202533</v>
+      </c>
+      <c r="E56">
+        <v>49.68000000000001</v>
+      </c>
+      <c r="F56">
+        <v>103.68</v>
+      </c>
+      <c r="G56">
+        <v>10.7</v>
+      </c>
+      <c r="H56">
+        <v>138</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>7.74</v>
+      </c>
+      <c r="K56">
+        <v>22.7</v>
+      </c>
+      <c r="L56">
+        <v>-14.96</v>
+      </c>
+      <c r="M56">
+        <v>19.046016</v>
+      </c>
+      <c r="N56">
+        <v>-34.006016</v>
+      </c>
+      <c r="O56">
+        <v>-8.501504000000001</v>
+      </c>
+      <c r="P56">
+        <v>-25.504512</v>
+      </c>
+      <c r="Q56">
+        <v>-2.804512000000003</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1292259051113391</v>
+      </c>
+      <c r="T56">
+        <v>2.540803074392779</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>-0.1963665262068455</v>
+      </c>
+      <c r="W56">
+        <v>0.2197725308641975</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>-0.7854661048273823</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1798650830178827</v>
+      </c>
+      <c r="C57">
+        <v>-42.60705443227302</v>
+      </c>
+      <c r="D57">
+        <v>52.29294556772699</v>
+      </c>
+      <c r="E57">
+        <v>51.60000000000001</v>
+      </c>
+      <c r="F57">
+        <v>105.6</v>
+      </c>
+      <c r="G57">
+        <v>10.7</v>
+      </c>
+      <c r="H57">
+        <v>138</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>7.74</v>
+      </c>
+      <c r="K57">
+        <v>22.7</v>
+      </c>
+      <c r="L57">
+        <v>-14.96</v>
+      </c>
+      <c r="M57">
+        <v>19.39872</v>
+      </c>
+      <c r="N57">
+        <v>-34.35872</v>
+      </c>
+      <c r="O57">
+        <v>-8.58968</v>
+      </c>
+      <c r="P57">
+        <v>-25.76904</v>
+      </c>
+      <c r="Q57">
+        <v>-3.069039999999998</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1318909252249245</v>
+      </c>
+      <c r="T57">
+        <v>2.597265364934841</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>-0.1927962257303575</v>
+      </c>
+      <c r="W57">
+        <v>0.2191166666666667</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>-0.7711849029214297</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1816090830178827</v>
+      </c>
+      <c r="C58">
+        <v>-45.05632947380201</v>
+      </c>
+      <c r="D58">
+        <v>51.763670526198</v>
+      </c>
+      <c r="E58">
+        <v>53.52000000000001</v>
+      </c>
+      <c r="F58">
+        <v>107.52</v>
+      </c>
+      <c r="G58">
+        <v>10.7</v>
+      </c>
+      <c r="H58">
+        <v>138</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>7.74</v>
+      </c>
+      <c r="K58">
+        <v>22.7</v>
+      </c>
+      <c r="L58">
+        <v>-14.96</v>
+      </c>
+      <c r="M58">
+        <v>19.751424</v>
+      </c>
+      <c r="N58">
+        <v>-34.711424</v>
+      </c>
+      <c r="O58">
+        <v>-8.677856</v>
+      </c>
+      <c r="P58">
+        <v>-26.033568</v>
+      </c>
+      <c r="Q58">
+        <v>-3.333568000000003</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1346770826164</v>
+      </c>
+      <c r="T58">
+        <v>2.656294123228814</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>-0.1893534359851725</v>
+      </c>
+      <c r="W58">
+        <v>0.2184842261904762</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>-0.7574137439406898</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1833530830178827</v>
+      </c>
+      <c r="C59">
+        <v>-47.49499791582217</v>
+      </c>
+      <c r="D59">
+        <v>51.24500208417784</v>
+      </c>
+      <c r="E59">
+        <v>55.44000000000001</v>
+      </c>
+      <c r="F59">
+        <v>109.44</v>
+      </c>
+      <c r="G59">
+        <v>10.7</v>
+      </c>
+      <c r="H59">
+        <v>138</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>7.74</v>
+      </c>
+      <c r="K59">
+        <v>22.7</v>
+      </c>
+      <c r="L59">
+        <v>-14.96</v>
+      </c>
+      <c r="M59">
+        <v>20.104128</v>
+      </c>
+      <c r="N59">
+        <v>-35.064128</v>
+      </c>
+      <c r="O59">
+        <v>-8.766032000000001</v>
+      </c>
+      <c r="P59">
+        <v>-26.298096</v>
+      </c>
+      <c r="Q59">
+        <v>-3.598096000000002</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1375928287237582</v>
+      </c>
+      <c r="T59">
+        <v>2.718068405164368</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>-0.1860314458801695</v>
+      </c>
+      <c r="W59">
+        <v>0.2178739766081871</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>-0.7441257835206778</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1850970830178827</v>
+      </c>
+      <c r="C60">
+        <v>-49.92337542755659</v>
+      </c>
+      <c r="D60">
+        <v>50.73662457244339</v>
+      </c>
+      <c r="E60">
+        <v>57.35999999999999</v>
+      </c>
+      <c r="F60">
+        <v>111.36</v>
+      </c>
+      <c r="G60">
+        <v>10.7</v>
+      </c>
+      <c r="H60">
+        <v>138</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>7.74</v>
+      </c>
+      <c r="K60">
+        <v>22.7</v>
+      </c>
+      <c r="L60">
+        <v>-14.96</v>
+      </c>
+      <c r="M60">
+        <v>20.456832</v>
+      </c>
+      <c r="N60">
+        <v>-35.416832</v>
+      </c>
+      <c r="O60">
+        <v>-8.854208</v>
+      </c>
+      <c r="P60">
+        <v>-26.562624</v>
+      </c>
+      <c r="Q60">
+        <v>-3.862624</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1406474198838476</v>
+      </c>
+      <c r="T60">
+        <v>2.782784319573043</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>-0.1828240071580976</v>
+      </c>
+      <c r="W60">
+        <v>0.2172847701149425</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>-0.7312960286323904</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1868410830178827</v>
+      </c>
+      <c r="C61">
+        <v>-52.34176527485424</v>
+      </c>
+      <c r="D61">
+        <v>50.23823472514576</v>
+      </c>
+      <c r="E61">
+        <v>59.28</v>
+      </c>
+      <c r="F61">
+        <v>113.28</v>
+      </c>
+      <c r="G61">
+        <v>10.7</v>
+      </c>
+      <c r="H61">
+        <v>138</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>7.74</v>
+      </c>
+      <c r="K61">
+        <v>22.7</v>
+      </c>
+      <c r="L61">
+        <v>-14.96</v>
+      </c>
+      <c r="M61">
+        <v>20.809536</v>
+      </c>
+      <c r="N61">
+        <v>-35.769536</v>
+      </c>
+      <c r="O61">
+        <v>-8.942384000000001</v>
+      </c>
+      <c r="P61">
+        <v>-26.827152</v>
+      </c>
+      <c r="Q61">
+        <v>-4.127152000000002</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1438510154907707</v>
+      </c>
+      <c r="T61">
+        <v>2.850657107855312</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>-0.1797252951723671</v>
+      </c>
+      <c r="W61">
+        <v>0.2167155367231638</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>-0.7189011806894685</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1885850830178827</v>
+      </c>
+      <c r="C62">
+        <v>-54.75045892346033</v>
+      </c>
+      <c r="D62">
+        <v>49.74954107653966</v>
+      </c>
+      <c r="E62">
+        <v>61.19999999999999</v>
+      </c>
+      <c r="F62">
+        <v>115.2</v>
+      </c>
+      <c r="G62">
+        <v>10.7</v>
+      </c>
+      <c r="H62">
+        <v>138</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>7.74</v>
+      </c>
+      <c r="K62">
+        <v>22.7</v>
+      </c>
+      <c r="L62">
+        <v>-14.96</v>
+      </c>
+      <c r="M62">
+        <v>21.16224</v>
+      </c>
+      <c r="N62">
+        <v>-36.12224</v>
+      </c>
+      <c r="O62">
+        <v>-9.030559999999999</v>
+      </c>
+      <c r="P62">
+        <v>-27.09168</v>
+      </c>
+      <c r="Q62">
+        <v>-4.391679999999997</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.14721479087804</v>
+      </c>
+      <c r="T62">
+        <v>2.921923535551695</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>-0.176729873586161</v>
+      </c>
+      <c r="W62">
+        <v>0.2161652777777778</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>-0.7069194943446442</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1903290830178827</v>
+      </c>
+      <c r="C63">
+        <v>-57.14973660741633</v>
+      </c>
+      <c r="D63">
+        <v>49.27026339258368</v>
+      </c>
+      <c r="E63">
+        <v>63.12</v>
+      </c>
+      <c r="F63">
+        <v>117.12</v>
+      </c>
+      <c r="G63">
+        <v>10.7</v>
+      </c>
+      <c r="H63">
+        <v>138</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>7.74</v>
+      </c>
+      <c r="K63">
+        <v>22.7</v>
+      </c>
+      <c r="L63">
+        <v>-14.96</v>
+      </c>
+      <c r="M63">
+        <v>21.514944</v>
+      </c>
+      <c r="N63">
+        <v>-36.474944</v>
+      </c>
+      <c r="O63">
+        <v>-9.118736</v>
+      </c>
+      <c r="P63">
+        <v>-27.356208</v>
+      </c>
+      <c r="Q63">
+        <v>-4.656208000000003</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1507510675672205</v>
+      </c>
+      <c r="T63">
+        <v>2.996844651847892</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>-0.1738326625437649</v>
+      </c>
+      <c r="W63">
+        <v>0.2156330601092896</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>-0.6953306501750598</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1920730830178827</v>
+      </c>
+      <c r="C64">
+        <v>-59.53986786491805</v>
+      </c>
+      <c r="D64">
+        <v>48.80013213508194</v>
+      </c>
+      <c r="E64">
+        <v>65.03999999999999</v>
+      </c>
+      <c r="F64">
+        <v>119.04</v>
+      </c>
+      <c r="G64">
+        <v>10.7</v>
+      </c>
+      <c r="H64">
+        <v>138</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>7.74</v>
+      </c>
+      <c r="K64">
+        <v>22.7</v>
+      </c>
+      <c r="L64">
+        <v>-14.96</v>
+      </c>
+      <c r="M64">
+        <v>21.867648</v>
+      </c>
+      <c r="N64">
+        <v>-36.827648</v>
+      </c>
+      <c r="O64">
+        <v>-9.206911999999999</v>
+      </c>
+      <c r="P64">
+        <v>-27.620736</v>
+      </c>
+      <c r="Q64">
+        <v>-4.920735999999998</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1544734640821474</v>
+      </c>
+      <c r="T64">
+        <v>3.075708984791258</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>-0.1710289099220913</v>
+      </c>
+      <c r="W64">
+        <v>0.2151180107526882</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>-0.6841156396883652</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1938170830178827</v>
+      </c>
+      <c r="C65">
+        <v>-61.92111204378543</v>
+      </c>
+      <c r="D65">
+        <v>48.33888795621458</v>
+      </c>
+      <c r="E65">
+        <v>66.96000000000001</v>
+      </c>
+      <c r="F65">
+        <v>120.96</v>
+      </c>
+      <c r="G65">
+        <v>10.7</v>
+      </c>
+      <c r="H65">
+        <v>138</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>7.74</v>
+      </c>
+      <c r="K65">
+        <v>22.7</v>
+      </c>
+      <c r="L65">
+        <v>-14.96</v>
+      </c>
+      <c r="M65">
+        <v>22.220352</v>
+      </c>
+      <c r="N65">
+        <v>-37.180352</v>
+      </c>
+      <c r="O65">
+        <v>-9.295088</v>
+      </c>
+      <c r="P65">
+        <v>-27.885264</v>
+      </c>
+      <c r="Q65">
+        <v>-5.185264</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1583970712195027</v>
+      </c>
+      <c r="T65">
+        <v>3.158836254650482</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>-0.1683141653201533</v>
+      </c>
+      <c r="W65">
+        <v>0.2146193121693122</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>-0.6732566612806132</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1955610830178827</v>
+      </c>
+      <c r="C66">
+        <v>-64.29371877853497</v>
+      </c>
+      <c r="D66">
+        <v>47.88628122146503</v>
+      </c>
+      <c r="E66">
+        <v>68.88</v>
+      </c>
+      <c r="F66">
+        <v>122.88</v>
+      </c>
+      <c r="G66">
+        <v>10.7</v>
+      </c>
+      <c r="H66">
+        <v>138</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>7.74</v>
+      </c>
+      <c r="K66">
+        <v>22.7</v>
+      </c>
+      <c r="L66">
+        <v>-14.96</v>
+      </c>
+      <c r="M66">
+        <v>22.573056</v>
+      </c>
+      <c r="N66">
+        <v>-37.533056</v>
+      </c>
+      <c r="O66">
+        <v>-9.383264</v>
+      </c>
+      <c r="P66">
+        <v>-28.149792</v>
+      </c>
+      <c r="Q66">
+        <v>-5.449792000000002</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1625386565311556</v>
+      </c>
+      <c r="T66">
+        <v>3.246581706168551</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>-0.1656842564870259</v>
+      </c>
+      <c r="W66">
+        <v>0.2141361979166667</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>-0.6627370259481038</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1973050830178827</v>
+      </c>
+      <c r="C67">
+        <v>-66.65792844089974</v>
+      </c>
+      <c r="D67">
+        <v>47.44207155910028</v>
+      </c>
+      <c r="E67">
+        <v>70.80000000000001</v>
+      </c>
+      <c r="F67">
+        <v>124.8</v>
+      </c>
+      <c r="G67">
+        <v>10.7</v>
+      </c>
+      <c r="H67">
+        <v>138</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>7.74</v>
+      </c>
+      <c r="K67">
+        <v>22.7</v>
+      </c>
+      <c r="L67">
+        <v>-14.96</v>
+      </c>
+      <c r="M67">
+        <v>22.92576</v>
+      </c>
+      <c r="N67">
+        <v>-37.88576</v>
+      </c>
+      <c r="O67">
+        <v>-9.471440000000001</v>
+      </c>
+      <c r="P67">
+        <v>-28.41432</v>
+      </c>
+      <c r="Q67">
+        <v>-5.714320000000004</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1669169038606172</v>
+      </c>
+      <c r="T67">
+        <v>3.339341183487652</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>-0.1631352679256871</v>
+      </c>
+      <c r="W67">
+        <v>0.2136679487179487</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>-0.6525410717027482</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1990490830178827</v>
+      </c>
+      <c r="C68">
+        <v>-69.01397256550439</v>
+      </c>
+      <c r="D68">
+        <v>47.00602743449561</v>
+      </c>
+      <c r="E68">
+        <v>72.72</v>
+      </c>
+      <c r="F68">
+        <v>126.72</v>
+      </c>
+      <c r="G68">
+        <v>10.7</v>
+      </c>
+      <c r="H68">
+        <v>138</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>7.74</v>
+      </c>
+      <c r="K68">
+        <v>22.7</v>
+      </c>
+      <c r="L68">
+        <v>-14.96</v>
+      </c>
+      <c r="M68">
+        <v>23.278464</v>
+      </c>
+      <c r="N68">
+        <v>-38.238464</v>
+      </c>
+      <c r="O68">
+        <v>-9.559616</v>
+      </c>
+      <c r="P68">
+        <v>-28.678848</v>
+      </c>
+      <c r="Q68">
+        <v>-5.978848000000003</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1715526951506353</v>
+      </c>
+      <c r="T68">
+        <v>3.437557100649054</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>-0.1606635214419646</v>
+      </c>
+      <c r="W68">
+        <v>0.2132138888888889</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>-0.6426540857678582</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.2007930830178827</v>
+      </c>
+      <c r="C69">
+        <v>-71.36207425227973</v>
+      </c>
+      <c r="D69">
+        <v>46.57792574772029</v>
+      </c>
+      <c r="E69">
+        <v>74.64000000000001</v>
+      </c>
+      <c r="F69">
+        <v>128.64</v>
+      </c>
+      <c r="G69">
+        <v>10.7</v>
+      </c>
+      <c r="H69">
+        <v>138</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>7.74</v>
+      </c>
+      <c r="K69">
+        <v>22.7</v>
+      </c>
+      <c r="L69">
+        <v>-14.96</v>
+      </c>
+      <c r="M69">
+        <v>23.631168</v>
+      </c>
+      <c r="N69">
+        <v>-38.591168</v>
+      </c>
+      <c r="O69">
+        <v>-9.647792000000001</v>
+      </c>
+      <c r="P69">
+        <v>-28.943376</v>
+      </c>
+      <c r="Q69">
+        <v>-6.243376000000001</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1764694434885334</v>
+      </c>
+      <c r="T69">
+        <v>3.541725497638419</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>-0.158265558435368</v>
+      </c>
+      <c r="W69">
+        <v>0.2127733830845771</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>-0.6330622337414722</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.2025370830178827</v>
+      </c>
+      <c r="C70">
+        <v>-73.70244854708579</v>
+      </c>
+      <c r="D70">
+        <v>46.15755145291421</v>
+      </c>
+      <c r="E70">
+        <v>76.56</v>
+      </c>
+      <c r="F70">
+        <v>130.56</v>
+      </c>
+      <c r="G70">
+        <v>10.7</v>
+      </c>
+      <c r="H70">
+        <v>138</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>7.74</v>
+      </c>
+      <c r="K70">
+        <v>22.7</v>
+      </c>
+      <c r="L70">
+        <v>-14.96</v>
+      </c>
+      <c r="M70">
+        <v>23.983872</v>
+      </c>
+      <c r="N70">
+        <v>-38.943872</v>
+      </c>
+      <c r="O70">
+        <v>-9.735968</v>
+      </c>
+      <c r="P70">
+        <v>-29.207904</v>
+      </c>
+      <c r="Q70">
+        <v>-6.507904</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1816934885975501</v>
+      </c>
+      <c r="T70">
+        <v>3.65240441943962</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>-0.155938123752495</v>
+      </c>
+      <c r="W70">
+        <v>0.2123458333333333</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>-0.62375249500998</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.2042810830178827</v>
+      </c>
+      <c r="C71">
+        <v>-76.03530280190856</v>
+      </c>
+      <c r="D71">
+        <v>45.74469719809146</v>
+      </c>
+      <c r="E71">
+        <v>78.48000000000002</v>
+      </c>
+      <c r="F71">
+        <v>132.48</v>
+      </c>
+      <c r="G71">
+        <v>10.7</v>
+      </c>
+      <c r="H71">
+        <v>138</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>7.74</v>
+      </c>
+      <c r="K71">
+        <v>22.7</v>
+      </c>
+      <c r="L71">
+        <v>-14.96</v>
+      </c>
+      <c r="M71">
+        <v>24.336576</v>
+      </c>
+      <c r="N71">
+        <v>-39.296576</v>
+      </c>
+      <c r="O71">
+        <v>-9.824144</v>
+      </c>
+      <c r="P71">
+        <v>-29.472432</v>
+      </c>
+      <c r="Q71">
+        <v>-6.772432000000002</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1872545688748904</v>
+      </c>
+      <c r="T71">
+        <v>3.770223916840898</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>-0.1536781509444878</v>
+      </c>
+      <c r="W71">
+        <v>0.2119306763285024</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>-0.6147126037779511</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.2060250830178827</v>
+      </c>
+      <c r="C72">
+        <v>-78.360837015897</v>
+      </c>
+      <c r="D72">
+        <v>45.339162984103</v>
+      </c>
+      <c r="E72">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="F72">
+        <v>134.4</v>
+      </c>
+      <c r="G72">
+        <v>10.7</v>
+      </c>
+      <c r="H72">
+        <v>138</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>7.74</v>
+      </c>
+      <c r="K72">
+        <v>22.7</v>
+      </c>
+      <c r="L72">
+        <v>-14.96</v>
+      </c>
+      <c r="M72">
+        <v>24.68928</v>
+      </c>
+      <c r="N72">
+        <v>-39.64928</v>
+      </c>
+      <c r="O72">
+        <v>-9.912319999999999</v>
+      </c>
+      <c r="P72">
+        <v>-29.73696</v>
+      </c>
+      <c r="Q72">
+        <v>-7.036959999999997</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1931863878373867</v>
+      </c>
+      <c r="T72">
+        <v>3.895898047402262</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>-0.151482748788138</v>
+      </c>
+      <c r="W72">
+        <v>0.211527380952381</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>-0.605930995152552</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.2077690830178827</v>
+      </c>
+      <c r="C73">
+        <v>-80.67924415841979</v>
+      </c>
+      <c r="D73">
+        <v>44.9407558415802</v>
+      </c>
+      <c r="E73">
+        <v>82.31999999999999</v>
+      </c>
+      <c r="F73">
+        <v>136.32</v>
+      </c>
+      <c r="G73">
+        <v>10.7</v>
+      </c>
+      <c r="H73">
+        <v>138</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>7.74</v>
+      </c>
+      <c r="K73">
+        <v>22.7</v>
+      </c>
+      <c r="L73">
+        <v>-14.96</v>
+      </c>
+      <c r="M73">
+        <v>25.041984</v>
+      </c>
+      <c r="N73">
+        <v>-40.001984</v>
+      </c>
+      <c r="O73">
+        <v>-10.000496</v>
+      </c>
+      <c r="P73">
+        <v>-30.001488</v>
+      </c>
+      <c r="Q73">
+        <v>-7.301488000000003</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1995272977628138</v>
+      </c>
+      <c r="T73">
+        <v>4.030239359381649</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>-0.1493491889460516</v>
+      </c>
+      <c r="W73">
+        <v>0.2111354460093897</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>-0.5973967557842064</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.2095130830178827</v>
+      </c>
+      <c r="C74">
+        <v>-82.99071047523744</v>
+      </c>
+      <c r="D74">
+        <v>44.54928952476257</v>
+      </c>
+      <c r="E74">
+        <v>84.24000000000001</v>
+      </c>
+      <c r="F74">
+        <v>138.24</v>
+      </c>
+      <c r="G74">
+        <v>10.7</v>
+      </c>
+      <c r="H74">
+        <v>138</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>7.74</v>
+      </c>
+      <c r="K74">
+        <v>22.7</v>
+      </c>
+      <c r="L74">
+        <v>-14.96</v>
+      </c>
+      <c r="M74">
+        <v>25.394688</v>
+      </c>
+      <c r="N74">
+        <v>-40.354688</v>
+      </c>
+      <c r="O74">
+        <v>-10.088672</v>
+      </c>
+      <c r="P74">
+        <v>-30.266016</v>
+      </c>
+      <c r="Q74">
+        <v>-7.566016000000001</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.2063211298257714</v>
+      </c>
+      <c r="T74">
+        <v>4.174176479359565</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>-0.1472748946551342</v>
+      </c>
+      <c r="W74">
+        <v>0.2107543981481481</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>-0.5890995786205366</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.2112570830178827</v>
+      </c>
+      <c r="C75">
+        <v>-85.29541577881081</v>
+      </c>
+      <c r="D75">
+        <v>44.16458422118919</v>
+      </c>
+      <c r="E75">
+        <v>86.16</v>
+      </c>
+      <c r="F75">
+        <v>140.16</v>
+      </c>
+      <c r="G75">
+        <v>10.7</v>
+      </c>
+      <c r="H75">
+        <v>138</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>7.74</v>
+      </c>
+      <c r="K75">
+        <v>22.7</v>
+      </c>
+      <c r="L75">
+        <v>-14.96</v>
+      </c>
+      <c r="M75">
+        <v>25.747392</v>
+      </c>
+      <c r="N75">
+        <v>-40.707392</v>
+      </c>
+      <c r="O75">
+        <v>-10.176848</v>
+      </c>
+      <c r="P75">
+        <v>-30.530544</v>
+      </c>
+      <c r="Q75">
+        <v>-7.830544</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.2136182087082074</v>
+      </c>
+      <c r="T75">
+        <v>4.328775608224733</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>-0.1452574303447899</v>
+      </c>
+      <c r="W75">
+        <v>0.2103837899543379</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>-0.5810297213791593</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.2130010830178827</v>
+      </c>
+      <c r="C76">
+        <v>-87.59353372369668</v>
+      </c>
+      <c r="D76">
+        <v>43.7864662763033</v>
+      </c>
+      <c r="E76">
+        <v>88.07999999999998</v>
+      </c>
+      <c r="F76">
+        <v>142.08</v>
+      </c>
+      <c r="G76">
+        <v>10.7</v>
+      </c>
+      <c r="H76">
+        <v>138</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>7.74</v>
+      </c>
+      <c r="K76">
+        <v>22.7</v>
+      </c>
+      <c r="L76">
+        <v>-14.96</v>
+      </c>
+      <c r="M76">
+        <v>26.100096</v>
+      </c>
+      <c r="N76">
+        <v>-41.06009599999999</v>
+      </c>
+      <c r="O76">
+        <v>-10.265024</v>
+      </c>
+      <c r="P76">
+        <v>-30.795072</v>
+      </c>
+      <c r="Q76">
+        <v>-8.095071999999998</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.2214766013508308</v>
+      </c>
+      <c r="T76">
+        <v>4.495266977771839</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>-0.1432944920968873</v>
+      </c>
+      <c r="W76">
+        <v>0.2100231981981982</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>-0.5731779683875491</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.2147450830178827</v>
+      </c>
+      <c r="C77">
+        <v>-89.88523206791665</v>
+      </c>
+      <c r="D77">
+        <v>43.41476793208335</v>
+      </c>
+      <c r="E77">
+        <v>90</v>
+      </c>
+      <c r="F77">
+        <v>144</v>
+      </c>
+      <c r="G77">
+        <v>10.7</v>
+      </c>
+      <c r="H77">
+        <v>138</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>7.74</v>
+      </c>
+      <c r="K77">
+        <v>22.7</v>
+      </c>
+      <c r="L77">
+        <v>-14.96</v>
+      </c>
+      <c r="M77">
+        <v>26.4528</v>
+      </c>
+      <c r="N77">
+        <v>-41.4128</v>
+      </c>
+      <c r="O77">
+        <v>-10.3532</v>
+      </c>
+      <c r="P77">
+        <v>-31.0596</v>
+      </c>
+      <c r="Q77">
+        <v>-8.359599999999997</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.2299636654048641</v>
+      </c>
+      <c r="T77">
+        <v>4.675077656882713</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>-0.1413838988689288</v>
+      </c>
+      <c r="W77">
+        <v>0.2096722222222222</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>-0.5655355954757151</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.2164890830178827</v>
+      </c>
+      <c r="C78">
+        <v>-92.1706729211252</v>
+      </c>
+      <c r="D78">
+        <v>43.04932707887482</v>
+      </c>
+      <c r="E78">
+        <v>91.92000000000002</v>
+      </c>
+      <c r="F78">
+        <v>145.92</v>
+      </c>
+      <c r="G78">
+        <v>10.7</v>
+      </c>
+      <c r="H78">
+        <v>138</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>7.74</v>
+      </c>
+      <c r="K78">
+        <v>22.7</v>
+      </c>
+      <c r="L78">
+        <v>-14.96</v>
+      </c>
+      <c r="M78">
+        <v>26.805504</v>
+      </c>
+      <c r="N78">
+        <v>-41.765504</v>
+      </c>
+      <c r="O78">
+        <v>-10.441376</v>
+      </c>
+      <c r="P78">
+        <v>-31.324128</v>
+      </c>
+      <c r="Q78">
+        <v>-8.624128000000002</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.2391579847967334</v>
+      </c>
+      <c r="T78">
+        <v>4.869872559252825</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>-0.1395235844101271</v>
+      </c>
+      <c r="W78">
+        <v>0.2093304824561403</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>-0.5580943376405083</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.2182330830178827</v>
+      </c>
+      <c r="C79">
+        <v>-94.45001298034948</v>
+      </c>
+      <c r="D79">
+        <v>42.68998701965052</v>
+      </c>
+      <c r="E79">
+        <v>93.84</v>
+      </c>
+      <c r="F79">
+        <v>147.84</v>
+      </c>
+      <c r="G79">
+        <v>10.7</v>
+      </c>
+      <c r="H79">
+        <v>138</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>7.74</v>
+      </c>
+      <c r="K79">
+        <v>22.7</v>
+      </c>
+      <c r="L79">
+        <v>-14.96</v>
+      </c>
+      <c r="M79">
+        <v>27.158208</v>
+      </c>
+      <c r="N79">
+        <v>-42.118208</v>
+      </c>
+      <c r="O79">
+        <v>-10.529552</v>
+      </c>
+      <c r="P79">
+        <v>-31.588656</v>
+      </c>
+      <c r="Q79">
+        <v>-8.888656000000001</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.2491518102226783</v>
+      </c>
+      <c r="T79">
+        <v>5.081606148785557</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>-0.1377115898073982</v>
+      </c>
+      <c r="W79">
+        <v>0.208997619047619</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>-0.5508463592295927</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.2199770830178827</v>
+      </c>
+      <c r="C80">
+        <v>-96.72340375401966</v>
+      </c>
+      <c r="D80">
+        <v>42.33659624598033</v>
+      </c>
+      <c r="E80">
+        <v>95.75999999999999</v>
+      </c>
+      <c r="F80">
+        <v>149.76</v>
+      </c>
+      <c r="G80">
+        <v>10.7</v>
+      </c>
+      <c r="H80">
+        <v>138</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>7.74</v>
+      </c>
+      <c r="K80">
+        <v>22.7</v>
+      </c>
+      <c r="L80">
+        <v>-14.96</v>
+      </c>
+      <c r="M80">
+        <v>27.510912</v>
+      </c>
+      <c r="N80">
+        <v>-42.470912</v>
+      </c>
+      <c r="O80">
+        <v>-10.617728</v>
+      </c>
+      <c r="P80">
+        <v>-31.853184</v>
+      </c>
+      <c r="Q80">
+        <v>-9.153184</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.2600541652328001</v>
+      </c>
+      <c r="T80">
+        <v>5.312588246457629</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>-0.1359460566047392</v>
+      </c>
+      <c r="W80">
+        <v>0.2086732905982906</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>-0.543784226418957</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.2217210830178827</v>
+      </c>
+      <c r="C81">
+        <v>-98.99099177496379</v>
+      </c>
+      <c r="D81">
+        <v>41.98900822503622</v>
+      </c>
+      <c r="E81">
+        <v>97.68000000000001</v>
+      </c>
+      <c r="F81">
+        <v>151.68</v>
+      </c>
+      <c r="G81">
+        <v>10.7</v>
+      </c>
+      <c r="H81">
+        <v>138</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>7.74</v>
+      </c>
+      <c r="K81">
+        <v>22.7</v>
+      </c>
+      <c r="L81">
+        <v>-14.96</v>
+      </c>
+      <c r="M81">
+        <v>27.863616</v>
+      </c>
+      <c r="N81">
+        <v>-42.823616</v>
+      </c>
+      <c r="O81">
+        <v>-10.705904</v>
+      </c>
+      <c r="P81">
+        <v>-32.117712</v>
+      </c>
+      <c r="Q81">
+        <v>-9.417711999999998</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2719948397676953</v>
+      </c>
+      <c r="T81">
+        <v>5.565568639146088</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>-0.1342252204451856</v>
+      </c>
+      <c r="W81">
+        <v>0.2083571729957806</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>-0.5369008817807424</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.2234650830178827</v>
+      </c>
+      <c r="C82">
+        <v>-101.2529188029955</v>
+      </c>
+      <c r="D82">
+        <v>41.64708119700454</v>
+      </c>
+      <c r="E82">
+        <v>99.60000000000002</v>
+      </c>
+      <c r="F82">
+        <v>153.6</v>
+      </c>
+      <c r="G82">
+        <v>10.7</v>
+      </c>
+      <c r="H82">
+        <v>138</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>7.74</v>
+      </c>
+      <c r="K82">
+        <v>22.7</v>
+      </c>
+      <c r="L82">
+        <v>-14.96</v>
+      </c>
+      <c r="M82">
+        <v>28.21632</v>
+      </c>
+      <c r="N82">
+        <v>-43.17632</v>
+      </c>
+      <c r="O82">
+        <v>-10.79408</v>
+      </c>
+      <c r="P82">
+        <v>-32.38224</v>
+      </c>
+      <c r="Q82">
+        <v>-9.682240000000004</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2851295817560801</v>
+      </c>
+      <c r="T82">
+        <v>5.843847071103392</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>-0.1325474051896207</v>
+      </c>
+      <c r="W82">
+        <v>0.2080489583333333</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>-0.5301896207584831</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.2252090830178827</v>
+      </c>
+      <c r="C83">
+        <v>-103.5093220176836</v>
+      </c>
+      <c r="D83">
+        <v>41.31067798231643</v>
+      </c>
+      <c r="E83">
+        <v>101.52</v>
+      </c>
+      <c r="F83">
+        <v>155.52</v>
+      </c>
+      <c r="G83">
+        <v>10.7</v>
+      </c>
+      <c r="H83">
+        <v>138</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>7.74</v>
+      </c>
+      <c r="K83">
+        <v>22.7</v>
+      </c>
+      <c r="L83">
+        <v>-14.96</v>
+      </c>
+      <c r="M83">
+        <v>28.569024</v>
+      </c>
+      <c r="N83">
+        <v>-43.529024</v>
+      </c>
+      <c r="O83">
+        <v>-10.882256</v>
+      </c>
+      <c r="P83">
+        <v>-32.646768</v>
+      </c>
+      <c r="Q83">
+        <v>-9.946768000000002</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.2996469281642948</v>
+      </c>
+      <c r="T83">
+        <v>6.151417969582519</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>-0.1309110174712304</v>
+      </c>
+      <c r="W83">
+        <v>0.207748353909465</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>-0.5236440698849214</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.2269530830178827</v>
+      </c>
+      <c r="C84">
+        <v>-105.7603342018539</v>
+      </c>
+      <c r="D84">
+        <v>40.97966579814609</v>
+      </c>
+      <c r="E84">
+        <v>103.44</v>
+      </c>
+      <c r="F84">
+        <v>157.44</v>
+      </c>
+      <c r="G84">
+        <v>10.7</v>
+      </c>
+      <c r="H84">
+        <v>138</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>7.74</v>
+      </c>
+      <c r="K84">
+        <v>22.7</v>
+      </c>
+      <c r="L84">
+        <v>-14.96</v>
+      </c>
+      <c r="M84">
+        <v>28.921728</v>
+      </c>
+      <c r="N84">
+        <v>-43.881728</v>
+      </c>
+      <c r="O84">
+        <v>-10.970432</v>
+      </c>
+      <c r="P84">
+        <v>-32.911296</v>
+      </c>
+      <c r="Q84">
+        <v>-10.211296</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.3157773130623112</v>
+      </c>
+      <c r="T84">
+        <v>6.493163412337103</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>-0.1293145416484105</v>
+      </c>
+      <c r="W84">
+        <v>0.207455081300813</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>-0.517258166593642</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.2286970830178827</v>
+      </c>
+      <c r="C85">
+        <v>-108.0060839163392</v>
+      </c>
+      <c r="D85">
+        <v>40.65391608366086</v>
+      </c>
+      <c r="E85">
+        <v>105.36</v>
+      </c>
+      <c r="F85">
+        <v>159.36</v>
+      </c>
+      <c r="G85">
+        <v>10.7</v>
+      </c>
+      <c r="H85">
+        <v>138</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>7.74</v>
+      </c>
+      <c r="K85">
+        <v>22.7</v>
+      </c>
+      <c r="L85">
+        <v>-14.96</v>
+      </c>
+      <c r="M85">
+        <v>29.274432</v>
+      </c>
+      <c r="N85">
+        <v>-44.23443200000001</v>
+      </c>
+      <c r="O85">
+        <v>-11.058608</v>
+      </c>
+      <c r="P85">
+        <v>-33.17582400000001</v>
+      </c>
+      <c r="Q85">
+        <v>-10.47582400000001</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.3338053903012708</v>
+      </c>
+      <c r="T85">
+        <v>6.87511420129811</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>-0.127756535122526</v>
+      </c>
+      <c r="W85">
+        <v>0.207168875502008</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>-0.511026140490104</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.2304410830178827</v>
+      </c>
+      <c r="C86">
+        <v>-110.2466956664596</v>
+      </c>
+      <c r="D86">
+        <v>40.33330433354036</v>
+      </c>
+      <c r="E86">
+        <v>107.28</v>
+      </c>
+      <c r="F86">
+        <v>161.28</v>
+      </c>
+      <c r="G86">
+        <v>10.7</v>
+      </c>
+      <c r="H86">
+        <v>138</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>7.74</v>
+      </c>
+      <c r="K86">
+        <v>22.7</v>
+      </c>
+      <c r="L86">
+        <v>-14.96</v>
+      </c>
+      <c r="M86">
+        <v>29.627136</v>
+      </c>
+      <c r="N86">
+        <v>-44.587136</v>
+      </c>
+      <c r="O86">
+        <v>-11.146784</v>
+      </c>
+      <c r="P86">
+        <v>-33.440352</v>
+      </c>
+      <c r="Q86">
+        <v>-10.74035200000001</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.3540869771951</v>
+      </c>
+      <c r="T86">
+        <v>7.304808838879238</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>-0.126235623990115</v>
+      </c>
+      <c r="W86">
+        <v>0.2068894841269841</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>-0.50494249596046</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.2321850830178827</v>
+      </c>
+      <c r="C87">
+        <v>-112.4822900606886</v>
+      </c>
+      <c r="D87">
+        <v>40.01770993931143</v>
+      </c>
+      <c r="E87">
+        <v>109.2</v>
+      </c>
+      <c r="F87">
+        <v>163.2</v>
+      </c>
+      <c r="G87">
+        <v>10.7</v>
+      </c>
+      <c r="H87">
+        <v>138</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>7.74</v>
+      </c>
+      <c r="K87">
+        <v>22.7</v>
+      </c>
+      <c r="L87">
+        <v>-14.96</v>
+      </c>
+      <c r="M87">
+        <v>29.97984</v>
+      </c>
+      <c r="N87">
+        <v>-44.93984</v>
+      </c>
+      <c r="O87">
+        <v>-11.23496</v>
+      </c>
+      <c r="P87">
+        <v>-33.70488</v>
+      </c>
+      <c r="Q87">
+        <v>-11.00488</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.3770727756747734</v>
+      </c>
+      <c r="T87">
+        <v>7.791796094804521</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>-0.124750499001996</v>
+      </c>
+      <c r="W87">
+        <v>0.2066166666666667</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>-0.4990019960079839</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.2339290830178826</v>
+      </c>
+      <c r="C88">
+        <v>-114.7129839619258</v>
+      </c>
+      <c r="D88">
+        <v>39.70701603807424</v>
+      </c>
+      <c r="E88">
+        <v>111.12</v>
+      </c>
+      <c r="F88">
+        <v>165.12</v>
+      </c>
+      <c r="G88">
+        <v>10.7</v>
+      </c>
+      <c r="H88">
+        <v>138</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>7.74</v>
+      </c>
+      <c r="K88">
+        <v>22.7</v>
+      </c>
+      <c r="L88">
+        <v>-14.96</v>
+      </c>
+      <c r="M88">
+        <v>30.332544</v>
+      </c>
+      <c r="N88">
+        <v>-45.292544</v>
+      </c>
+      <c r="O88">
+        <v>-11.323136</v>
+      </c>
+      <c r="P88">
+        <v>-33.969408</v>
+      </c>
+      <c r="Q88">
+        <v>-11.269408</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.4033422596515429</v>
+      </c>
+      <c r="T88">
+        <v>8.348352958719129</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>-0.1232999118042984</v>
+      </c>
+      <c r="W88">
+        <v>0.2063501937984496</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>-0.4931996472171933</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.2356730830178827</v>
+      </c>
+      <c r="C89">
+        <v>-116.9388906317789</v>
+      </c>
+      <c r="D89">
+        <v>39.40110936822105</v>
+      </c>
+      <c r="E89">
+        <v>113.04</v>
+      </c>
+      <c r="F89">
+        <v>167.04</v>
+      </c>
+      <c r="G89">
+        <v>10.7</v>
+      </c>
+      <c r="H89">
+        <v>138</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>7.74</v>
+      </c>
+      <c r="K89">
+        <v>22.7</v>
+      </c>
+      <c r="L89">
+        <v>-14.96</v>
+      </c>
+      <c r="M89">
+        <v>30.685248</v>
+      </c>
+      <c r="N89">
+        <v>-45.645248</v>
+      </c>
+      <c r="O89">
+        <v>-11.411312</v>
+      </c>
+      <c r="P89">
+        <v>-34.233936</v>
+      </c>
+      <c r="Q89">
+        <v>-11.533936</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.4336532027016615</v>
+      </c>
+      <c r="T89">
+        <v>8.990533955543677</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>-0.1218826714387317</v>
+      </c>
+      <c r="W89">
+        <v>0.206089846743295</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>-0.4875306857549269</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2374170830178827</v>
+      </c>
+      <c r="C90">
+        <v>-119.1601198682268</v>
+      </c>
+      <c r="D90">
+        <v>39.09988013177324</v>
+      </c>
+      <c r="E90">
+        <v>114.96</v>
+      </c>
+      <c r="F90">
+        <v>168.96</v>
+      </c>
+      <c r="G90">
+        <v>10.7</v>
+      </c>
+      <c r="H90">
+        <v>138</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>7.74</v>
+      </c>
+      <c r="K90">
+        <v>22.7</v>
+      </c>
+      <c r="L90">
+        <v>-14.96</v>
+      </c>
+      <c r="M90">
+        <v>31.037952</v>
+      </c>
+      <c r="N90">
+        <v>-45.997952</v>
+      </c>
+      <c r="O90">
+        <v>-11.499488</v>
+      </c>
+      <c r="P90">
+        <v>-34.498464</v>
+      </c>
+      <c r="Q90">
+        <v>-11.798464</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.4690159695934667</v>
+      </c>
+      <c r="T90">
+        <v>9.739745118505651</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>-0.1204976410814734</v>
+      </c>
+      <c r="W90">
+        <v>0.2058354166666667</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>-0.4819905643258935</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2391610830178827</v>
+      </c>
+      <c r="C91">
+        <v>-121.3767781370147</v>
+      </c>
+      <c r="D91">
+        <v>38.80322186298527</v>
+      </c>
+      <c r="E91">
+        <v>116.88</v>
+      </c>
+      <c r="F91">
+        <v>170.88</v>
+      </c>
+      <c r="G91">
+        <v>10.7</v>
+      </c>
+      <c r="H91">
+        <v>138</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>7.74</v>
+      </c>
+      <c r="K91">
+        <v>22.7</v>
+      </c>
+      <c r="L91">
+        <v>-14.96</v>
+      </c>
+      <c r="M91">
+        <v>31.390656</v>
+      </c>
+      <c r="N91">
+        <v>-46.350656</v>
+      </c>
+      <c r="O91">
+        <v>-11.587664</v>
+      </c>
+      <c r="P91">
+        <v>-34.762992</v>
+      </c>
+      <c r="Q91">
+        <v>-12.062992</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.5108083304656</v>
+      </c>
+      <c r="T91">
+        <v>10.62517649291526</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>-0.1191437350019063</v>
+      </c>
+      <c r="W91">
+        <v>0.2055867041198502</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>-0.4765749400076251</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2409050830178827</v>
+      </c>
+      <c r="C92">
+        <v>-123.5889686971149</v>
+      </c>
+      <c r="D92">
+        <v>38.51103130288508</v>
+      </c>
+      <c r="E92">
+        <v>118.8</v>
+      </c>
+      <c r="F92">
+        <v>172.8</v>
+      </c>
+      <c r="G92">
+        <v>10.7</v>
+      </c>
+      <c r="H92">
+        <v>138</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>7.74</v>
+      </c>
+      <c r="K92">
+        <v>22.7</v>
+      </c>
+      <c r="L92">
+        <v>-14.96</v>
+      </c>
+      <c r="M92">
+        <v>31.74336</v>
+      </c>
+      <c r="N92">
+        <v>-46.70336</v>
+      </c>
+      <c r="O92">
+        <v>-11.67584</v>
+      </c>
+      <c r="P92">
+        <v>-35.02752</v>
+      </c>
+      <c r="Q92">
+        <v>-12.32752</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.5609591635121601</v>
+      </c>
+      <c r="T92">
+        <v>11.68769414220678</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>-0.1178199157241073</v>
+      </c>
+      <c r="W92">
+        <v>0.2053435185185185</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>-0.4712796628964293</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2426490830178827</v>
+      </c>
+      <c r="C93">
+        <v>-125.7967917205595</v>
+      </c>
+      <c r="D93">
+        <v>38.22320827944048</v>
+      </c>
+      <c r="E93">
+        <v>120.72</v>
+      </c>
+      <c r="F93">
+        <v>174.72</v>
+      </c>
+      <c r="G93">
+        <v>10.7</v>
+      </c>
+      <c r="H93">
+        <v>138</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>7.74</v>
+      </c>
+      <c r="K93">
+        <v>22.7</v>
+      </c>
+      <c r="L93">
+        <v>-14.96</v>
+      </c>
+      <c r="M93">
+        <v>32.096064</v>
+      </c>
+      <c r="N93">
+        <v>-47.056064</v>
+      </c>
+      <c r="O93">
+        <v>-11.764016</v>
+      </c>
+      <c r="P93">
+        <v>-35.292048</v>
+      </c>
+      <c r="Q93">
+        <v>-12.592048</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.6222546261246225</v>
+      </c>
+      <c r="T93">
+        <v>12.98632682467421</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>-0.1165251913754908</v>
+      </c>
+      <c r="W93">
+        <v>0.2051056776556777</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>-0.4661007655019631</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2443930830178827</v>
+      </c>
+      <c r="C94">
+        <v>-128.0003444069407</v>
+      </c>
+      <c r="D94">
+        <v>37.93965559305934</v>
+      </c>
+      <c r="E94">
+        <v>122.64</v>
+      </c>
+      <c r="F94">
+        <v>176.64</v>
+      </c>
+      <c r="G94">
+        <v>10.7</v>
+      </c>
+      <c r="H94">
+        <v>138</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>7.74</v>
+      </c>
+      <c r="K94">
+        <v>22.7</v>
+      </c>
+      <c r="L94">
+        <v>-14.96</v>
+      </c>
+      <c r="M94">
+        <v>32.448768</v>
+      </c>
+      <c r="N94">
+        <v>-47.408768</v>
+      </c>
+      <c r="O94">
+        <v>-11.852192</v>
+      </c>
+      <c r="P94">
+        <v>-35.556576</v>
+      </c>
+      <c r="Q94">
+        <v>-12.856576</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.6988739543902006</v>
+      </c>
+      <c r="T94">
+        <v>14.60961767775849</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>-0.1152586132083659</v>
+      </c>
+      <c r="W94">
+        <v>0.2048730072463768</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>-0.4610344528334636</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2461370830178827</v>
+      </c>
+      <c r="C95">
+        <v>-130.1997210928513</v>
+      </c>
+      <c r="D95">
+        <v>37.66027890714864</v>
+      </c>
+      <c r="E95">
+        <v>124.56</v>
+      </c>
+      <c r="F95">
+        <v>178.56</v>
+      </c>
+      <c r="G95">
+        <v>10.7</v>
+      </c>
+      <c r="H95">
+        <v>138</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>7.74</v>
+      </c>
+      <c r="K95">
+        <v>22.7</v>
+      </c>
+      <c r="L95">
+        <v>-14.96</v>
+      </c>
+      <c r="M95">
+        <v>32.801472</v>
+      </c>
+      <c r="N95">
+        <v>-47.761472</v>
+      </c>
+      <c r="O95">
+        <v>-11.940368</v>
+      </c>
+      <c r="P95">
+        <v>-35.82110400000001</v>
+      </c>
+      <c r="Q95">
+        <v>-13.12110400000001</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.7973845193030864</v>
+      </c>
+      <c r="T95">
+        <v>16.69670591743827</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>-0.1140192732813942</v>
+      </c>
+      <c r="W95">
+        <v>0.2046453405017921</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>-0.4560770931255769</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2478810830178827</v>
+      </c>
+      <c r="C96">
+        <v>-132.3950133565265</v>
+      </c>
+      <c r="D96">
+        <v>37.38498664347347</v>
+      </c>
+      <c r="E96">
+        <v>126.48</v>
+      </c>
+      <c r="F96">
+        <v>180.48</v>
+      </c>
+      <c r="G96">
+        <v>10.7</v>
+      </c>
+      <c r="H96">
+        <v>138</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>7.74</v>
+      </c>
+      <c r="K96">
+        <v>22.7</v>
+      </c>
+      <c r="L96">
+        <v>-14.96</v>
+      </c>
+      <c r="M96">
+        <v>33.15417600000001</v>
+      </c>
+      <c r="N96">
+        <v>-48.11417600000001</v>
+      </c>
+      <c r="O96">
+        <v>-12.028544</v>
+      </c>
+      <c r="P96">
+        <v>-36.085632</v>
+      </c>
+      <c r="Q96">
+        <v>-13.385632</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.9287319391869344</v>
+      </c>
+      <c r="T96">
+        <v>19.47949023701132</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>-0.1128063022890389</v>
+      </c>
+      <c r="W96">
+        <v>0.2044225177304964</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>-0.4512252091561557</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2496250830178827</v>
+      </c>
+      <c r="C97">
+        <v>-134.5863101179277</v>
+      </c>
+      <c r="D97">
+        <v>37.1136898820723</v>
+      </c>
+      <c r="E97">
+        <v>128.4</v>
+      </c>
+      <c r="F97">
+        <v>182.4</v>
+      </c>
+      <c r="G97">
+        <v>10.7</v>
+      </c>
+      <c r="H97">
+        <v>138</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>7.74</v>
+      </c>
+      <c r="K97">
+        <v>22.7</v>
+      </c>
+      <c r="L97">
+        <v>-14.96</v>
+      </c>
+      <c r="M97">
+        <v>33.50688</v>
+      </c>
+      <c r="N97">
+        <v>-48.46688</v>
+      </c>
+      <c r="O97">
+        <v>-12.11672</v>
+      </c>
+      <c r="P97">
+        <v>-36.35016</v>
+      </c>
+      <c r="Q97">
+        <v>-13.65016</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.112618327024322</v>
+      </c>
+      <c r="T97">
+        <v>23.37538828441359</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>-0.1116188675281017</v>
+      </c>
+      <c r="W97">
+        <v>0.2042043859649122</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>-0.4464754701124067</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2513690830178827</v>
+      </c>
+      <c r="C98">
+        <v>-136.7736977345014</v>
+      </c>
+      <c r="D98">
+        <v>36.84630226549859</v>
+      </c>
+      <c r="E98">
+        <v>130.32</v>
+      </c>
+      <c r="F98">
+        <v>184.32</v>
+      </c>
+      <c r="G98">
+        <v>10.7</v>
+      </c>
+      <c r="H98">
+        <v>138</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>7.74</v>
+      </c>
+      <c r="K98">
+        <v>22.7</v>
+      </c>
+      <c r="L98">
+        <v>-14.96</v>
+      </c>
+      <c r="M98">
+        <v>33.859584</v>
+      </c>
+      <c r="N98">
+        <v>-48.819584</v>
+      </c>
+      <c r="O98">
+        <v>-12.204896</v>
+      </c>
+      <c r="P98">
+        <v>-36.614688</v>
+      </c>
+      <c r="Q98">
+        <v>-13.914688</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.388447908780399</v>
+      </c>
+      <c r="T98">
+        <v>29.21923535551693</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>-0.1104561709913506</v>
+      </c>
+      <c r="W98">
+        <v>0.2039907986111111</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>-0.4418246839654025</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2531130830178827</v>
+      </c>
+      <c r="C99">
+        <v>-138.9572600928278</v>
+      </c>
+      <c r="D99">
+        <v>36.58273990717218</v>
+      </c>
+      <c r="E99">
+        <v>132.24</v>
+      </c>
+      <c r="F99">
+        <v>186.24</v>
+      </c>
+      <c r="G99">
+        <v>10.7</v>
+      </c>
+      <c r="H99">
+        <v>138</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>7.74</v>
+      </c>
+      <c r="K99">
+        <v>22.7</v>
+      </c>
+      <c r="L99">
+        <v>-14.96</v>
+      </c>
+      <c r="M99">
+        <v>34.212288</v>
+      </c>
+      <c r="N99">
+        <v>-49.172288</v>
+      </c>
+      <c r="O99">
+        <v>-12.293072</v>
+      </c>
+      <c r="P99">
+        <v>-36.879216</v>
+      </c>
+      <c r="Q99">
+        <v>-14.179216</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.848163878373866</v>
+      </c>
+      <c r="T99">
+        <v>38.95898047402257</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>-0.1093174475790687</v>
+      </c>
+      <c r="W99">
+        <v>0.2037816151202749</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>-0.4372697903162748</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2548570830178827</v>
+      </c>
+      <c r="C100">
+        <v>-141.1370786963639</v>
+      </c>
+      <c r="D100">
+        <v>36.32292130363605</v>
+      </c>
+      <c r="E100">
+        <v>134.16</v>
+      </c>
+      <c r="F100">
+        <v>188.16</v>
+      </c>
+      <c r="G100">
+        <v>10.7</v>
+      </c>
+      <c r="H100">
+        <v>138</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>7.74</v>
+      </c>
+      <c r="K100">
+        <v>22.7</v>
+      </c>
+      <c r="L100">
+        <v>-14.96</v>
+      </c>
+      <c r="M100">
+        <v>34.564992</v>
+      </c>
+      <c r="N100">
+        <v>-49.524992</v>
+      </c>
+      <c r="O100">
+        <v>-12.381248</v>
+      </c>
+      <c r="P100">
+        <v>-37.143744</v>
+      </c>
+      <c r="Q100">
+        <v>-14.443744</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.767595817560798</v>
+      </c>
+      <c r="T100">
+        <v>58.43847071103386</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>-0.1082019634200986</v>
+      </c>
+      <c r="W100">
+        <v>0.2035767006802721</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>-0.4328078536803943</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2566010830178828</v>
+      </c>
+      <c r="C101">
+        <v>-143.313232749474</v>
+      </c>
+      <c r="D101">
+        <v>36.06676725052597</v>
+      </c>
+      <c r="E101">
+        <v>136.08</v>
+      </c>
+      <c r="F101">
+        <v>190.08</v>
+      </c>
+      <c r="G101">
+        <v>10.7</v>
+      </c>
+      <c r="H101">
+        <v>138</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>7.74</v>
+      </c>
+      <c r="K101">
+        <v>22.7</v>
+      </c>
+      <c r="L101">
+        <v>-14.96</v>
+      </c>
+      <c r="M101">
+        <v>34.917696</v>
+      </c>
+      <c r="N101">
+        <v>-49.877696</v>
+      </c>
+      <c r="O101">
+        <v>-12.469424</v>
+      </c>
+      <c r="P101">
+        <v>-37.408272</v>
+      </c>
+      <c r="Q101">
+        <v>-14.708272</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>5.525891635121597</v>
+      </c>
+      <c r="T101">
+        <v>116.8769414220677</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>-0.107109014294643</v>
+      </c>
+      <c r="W101">
+        <v>0.203375925925926</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>-0.4284360571785721</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
